--- a/docs/AIP2025 - pessoas.xlsx
+++ b/docs/AIP2025 - pessoas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\Pós-graduação em Engenharia de Automação e Sistemas - informal\MIP WAY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A022FA0-D3AE-45BE-8945-CC3D1710F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED27F65-7F4E-48F9-846F-F90F980D17A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C82E9E4-8D2E-4FB4-9016-6B1678B6545C}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C82E9E4-8D2E-4FB4-9016-6B1678B6545C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="503">
   <si>
     <t>Alessandro Benfenati</t>
   </si>
@@ -246,9 +246,6 @@
     <t xml:space="preserve"> France</t>
   </si>
   <si>
-    <t>Anson Macdonald</t>
-  </si>
-  <si>
     <t xml:space="preserve"> University of New South Wales</t>
   </si>
   <si>
@@ -339,12 +336,6 @@
     <t xml:space="preserve"> Pontificia Universidad Católica de Chile</t>
   </si>
   <si>
-    <t>Bill Rundell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Texas A&amp;M University</t>
-  </si>
-  <si>
     <t>Bo Simmendefeldt Schmidt</t>
   </si>
   <si>
@@ -375,9 +366,6 @@
     <t xml:space="preserve"> University of Houston</t>
   </si>
   <si>
-    <t>Daniel Sanz Alonso</t>
-  </si>
-  <si>
     <t xml:space="preserve"> University of Chicago</t>
   </si>
   <si>
@@ -441,9 +429,6 @@
     <t xml:space="preserve"> California Institute of Technology</t>
   </si>
   <si>
-    <t>Eduardo Miqueles</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Brazilian Center for Research in Energy and Materials</t>
   </si>
   <si>
@@ -489,9 +474,6 @@
     <t xml:space="preserve"> Federal University of RS</t>
   </si>
   <si>
-    <t>Fernando Moura</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Federal University of ABC</t>
   </si>
   <si>
@@ -531,9 +513,6 @@
     <t xml:space="preserve"> The University of Texas at Austin</t>
   </si>
   <si>
-    <t>Gier Evensen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> NORCE</t>
   </si>
   <si>
@@ -648,9 +627,6 @@
     <t xml:space="preserve"> UAE</t>
   </si>
   <si>
-    <t>José Iglesias Mar nez</t>
-  </si>
-  <si>
     <t xml:space="preserve"> University of Twente</t>
   </si>
   <si>
@@ -798,9 +774,6 @@
     <t xml:space="preserve"> Pontificia Univ. Catolica de Chile</t>
   </si>
   <si>
-    <t>Medet Nulsurtanov</t>
-  </si>
-  <si>
     <t>Melody Alsaker</t>
   </si>
   <si>
@@ -867,9 +840,6 @@
     <t>Omar Ghattas</t>
   </si>
   <si>
-    <t>Parveen Kumar</t>
-  </si>
-  <si>
     <t>Patricio Guerrero</t>
   </si>
   <si>
@@ -957,9 +927,6 @@
     <t>Sebastian Banert</t>
   </si>
   <si>
-    <t>Sebastian Munos-Thon</t>
-  </si>
-  <si>
     <t>Serena Morigi</t>
   </si>
   <si>
@@ -987,9 +954,6 @@
     <t>Spyridon Filippas</t>
   </si>
   <si>
-    <t>Stan Osher</t>
-  </si>
-  <si>
     <t>Stefania Bellavia</t>
   </si>
   <si>
@@ -1053,9 +1017,6 @@
     <t>Vanda Maria Luchesi</t>
   </si>
   <si>
-    <t>Venkateswarn Krishnan</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TIFR-CAM</t>
   </si>
   <si>
@@ -1071,9 +1032,6 @@
     <t xml:space="preserve"> UFSC and UFRJ</t>
   </si>
   <si>
-    <t>Vyacheslav Priimenko</t>
-  </si>
-  <si>
     <t xml:space="preserve"> State University of Norte Fluminense</t>
   </si>
   <si>
@@ -1101,9 +1059,6 @@
     <t xml:space="preserve"> EMAp/FGV</t>
   </si>
   <si>
-    <t>Zak Shumaylov</t>
-  </si>
-  <si>
     <t xml:space="preserve"> University of Cambridge</t>
   </si>
   <si>
@@ -1113,9 +1068,6 @@
     <t xml:space="preserve"> TIFR-CAM, Bangalore</t>
   </si>
   <si>
-    <t>Kang, Sung Ha</t>
-  </si>
-  <si>
     <t xml:space="preserve"> University of Genoa, MalGa</t>
   </si>
   <si>
@@ -1240,6 +1192,348 @@
   </si>
   <si>
     <t>Organiza 2</t>
+  </si>
+  <si>
+    <t>Shari Moskow</t>
+  </si>
+  <si>
+    <t>Drexel University</t>
+  </si>
+  <si>
+    <t>Fioralba Cakoni</t>
+  </si>
+  <si>
+    <t>Rutgers University</t>
+  </si>
+  <si>
+    <t>Federal Univ. of Piaui</t>
+  </si>
+  <si>
+    <t>Jürgen Frikel</t>
+  </si>
+  <si>
+    <t>Markus Haltmeier</t>
+  </si>
+  <si>
+    <t>Paolo Massa</t>
+  </si>
+  <si>
+    <t>Univ. of Applied Sciences and Arts Northwest Switzerland</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Anna Maria Massone</t>
+  </si>
+  <si>
+    <t>Università di Genova</t>
+  </si>
+  <si>
+    <t>Aster Santana</t>
+  </si>
+  <si>
+    <t>Mip Wise</t>
+  </si>
+  <si>
+    <t>Fábio Ramos</t>
+  </si>
+  <si>
+    <t>Federal University of Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Claudio Estatico</t>
+  </si>
+  <si>
+    <t>University of Genoa</t>
+  </si>
+  <si>
+    <t>Christian Aarset</t>
+  </si>
+  <si>
+    <t>University of Göttingen</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Max Planck Institute for Solar System Research</t>
+  </si>
+  <si>
+    <t>Sergey Kabanikhin</t>
+  </si>
+  <si>
+    <t>Sobolev Institute of Mathematics</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Ivan Dokmanic</t>
+  </si>
+  <si>
+    <t>University of Basel</t>
+  </si>
+  <si>
+    <t>Michael Puthawala</t>
+  </si>
+  <si>
+    <t>South Dakota State University</t>
+  </si>
+  <si>
+    <t>Kateryna Morozovska</t>
+  </si>
+  <si>
+    <t>KTH Stockholm</t>
+  </si>
+  <si>
+    <t>Aurora Poggi</t>
+  </si>
+  <si>
+    <t>Michael Hintermüller</t>
+  </si>
+  <si>
+    <t>Humboldt-Universität zu Berlin</t>
+  </si>
+  <si>
+    <t>Sung Ha Kang</t>
+  </si>
+  <si>
+    <t>Juan Peypouquet</t>
+  </si>
+  <si>
+    <t>University of Groningen</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Jeremias Sulam</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>Nick Heilenkötter</t>
+  </si>
+  <si>
+    <t>University of Bremen</t>
+  </si>
+  <si>
+    <t>Elena Beretta</t>
+  </si>
+  <si>
+    <t>NYU Abu Dhabi</t>
+  </si>
+  <si>
+    <t>Romina Gaburro</t>
+  </si>
+  <si>
+    <t>University of Limerick</t>
+  </si>
+  <si>
+    <t>Bojan Guzina</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>Martin Halla</t>
+  </si>
+  <si>
+    <t>Karlsruhe Institute of Technology / RICAM</t>
+  </si>
+  <si>
+    <t>Narek Hovsepyan</t>
+  </si>
+  <si>
+    <t>Manabu Machida</t>
+  </si>
+  <si>
+    <t>Kindai University</t>
+  </si>
+  <si>
+    <t>Jingni Xiao</t>
+  </si>
+  <si>
+    <t>Andrej Brojatsch</t>
+  </si>
+  <si>
+    <t>Frankfurt University</t>
+  </si>
+  <si>
+    <t>Federal Univ. of St. Catarina</t>
+  </si>
+  <si>
+    <t>Eduardo Xavier Miqueles</t>
+  </si>
+  <si>
+    <t>Fábio Junior Margotti</t>
+  </si>
+  <si>
+    <t>Joel Conceição Rabelo</t>
+  </si>
+  <si>
+    <t>Johannes Wagner</t>
+  </si>
+  <si>
+    <t>Wagner Barbosa Muniz</t>
+  </si>
+  <si>
+    <t>Elisa Francini</t>
+  </si>
+  <si>
+    <t>Universit`a degli Studi di Firenze</t>
+  </si>
+  <si>
+    <t>Luca Rondi</t>
+  </si>
+  <si>
+    <t>Universit`a degli Studi di Pavia</t>
+  </si>
+  <si>
+    <t>Yuyao Zhang</t>
+  </si>
+  <si>
+    <t>ShanghaiTech University</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Jiayang Shi</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Benjamin Walder</t>
+  </si>
+  <si>
+    <t>University of Innsbruck</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Tram Thi Ngoc Nguyen</t>
+  </si>
+  <si>
+    <t>Hendrik Müller</t>
+  </si>
+  <si>
+    <t>National Radio Astronomy Observatory, Socorro (New Mexico)</t>
+  </si>
+  <si>
+    <t>Emma Perracchione</t>
+  </si>
+  <si>
+    <t>Politecnico di Torino</t>
+  </si>
+  <si>
+    <t>Anna Volpara</t>
+  </si>
+  <si>
+    <t>Barbara Palumbo</t>
+  </si>
+  <si>
+    <t>Francesco Pio Ramunno</t>
+  </si>
+  <si>
+    <t>Univ. of Appl. Sci. and Arts Northwest Switzerland</t>
+  </si>
+  <si>
+    <t>Hamidreza Anbarlooei</t>
+  </si>
+  <si>
+    <t>Paulo Couto</t>
+  </si>
+  <si>
+    <t>Gabriel Sanfins</t>
+  </si>
+  <si>
+    <t>Edson Junior</t>
+  </si>
+  <si>
+    <t>Federal University of Santa Catarina</t>
+  </si>
+  <si>
+    <t>Silvia Berra</t>
+  </si>
+  <si>
+    <t>IRCCS Ospedale Policlinico San Martino</t>
+  </si>
+  <si>
+    <t>Salvatore Cuomo</t>
+  </si>
+  <si>
+    <t>University of Naples Federico II</t>
+  </si>
+  <si>
+    <t>Tan Bui-Thanh</t>
+  </si>
+  <si>
+    <t>University of Texas</t>
+  </si>
+  <si>
+    <t>Fabian Schneider</t>
+  </si>
+  <si>
+    <t>Lappeenranta-Lahti University of Technology</t>
+  </si>
+  <si>
+    <t>Kathrin Hellmuth</t>
+  </si>
+  <si>
+    <t>University of Würzburg</t>
+  </si>
+  <si>
+    <t>Ruanui Nicholson</t>
+  </si>
+  <si>
+    <t>University of Auckland</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Sebastian Munoz-Thon</t>
+  </si>
+  <si>
+    <t>Geir Evensen</t>
+  </si>
+  <si>
+    <t>Anson MacDonald</t>
+  </si>
+  <si>
+    <t>Daniel Sanz-Alonso</t>
+  </si>
+  <si>
+    <t>Medet Nursultanov</t>
+  </si>
+  <si>
+    <t>Viacheslav Priimenko</t>
+  </si>
+  <si>
+    <t>Stanley Osher</t>
+  </si>
+  <si>
+    <t>José Iglesias Martinez</t>
+  </si>
+  <si>
+    <t>William Rundell</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University</t>
+  </si>
+  <si>
+    <t>Venkateswaran Krishnan</t>
+  </si>
+  <si>
+    <t>Praveen Kumar</t>
   </si>
 </sst>
 </file>
@@ -1269,12 +1563,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1289,7 +1595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1297,7 +1603,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
   </cellXfs>
@@ -1614,47 +1925,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBE18F1-6BED-4A52-88D3-C09E7BB4AF31}">
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -1668,7 +1980,7 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>11</v>
       </c>
       <c r="F2">
@@ -1691,13 +2003,13 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>20</v>
       </c>
       <c r="F3">
         <v>9999</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>20</v>
       </c>
       <c r="H3">
@@ -1717,11 +2029,11 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>9</v>
       </c>
-      <c r="F4">
-        <v>9999</v>
+      <c r="F4" s="5">
+        <v>32</v>
       </c>
       <c r="G4">
         <v>9999</v>
@@ -1743,7 +2055,7 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5">
@@ -1766,7 +2078,7 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>16</v>
       </c>
       <c r="F6">
@@ -1792,7 +2104,7 @@
       <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>7</v>
       </c>
       <c r="F7">
@@ -1815,10 +2127,10 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>14</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>25</v>
       </c>
       <c r="G8">
@@ -1838,7 +2150,7 @@
       <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>25</v>
       </c>
       <c r="F9">
@@ -1864,13 +2176,13 @@
       <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>15</v>
       </c>
       <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10">
+        <v>9999</v>
+      </c>
+      <c r="G10" s="3">
         <v>24</v>
       </c>
       <c r="H10">
@@ -1890,7 +2202,7 @@
       <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>10</v>
       </c>
       <c r="F11">
@@ -1913,16 +2225,19 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="E12">
+      <c r="D12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="5">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>28</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>20</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>28</v>
       </c>
     </row>
@@ -1933,7 +2248,7 @@
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>27</v>
       </c>
       <c r="F13">
@@ -1956,7 +2271,7 @@
       <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>23</v>
       </c>
       <c r="F14">
@@ -1982,7 +2297,7 @@
       <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15">
@@ -2008,7 +2323,7 @@
       <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>21</v>
       </c>
       <c r="F16">
@@ -2034,14 +2349,14 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>13</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>25</v>
       </c>
-      <c r="G17">
-        <v>9999</v>
+      <c r="G17" s="3">
+        <v>33</v>
       </c>
       <c r="H17">
         <v>9999</v>
@@ -2060,13 +2375,13 @@
       <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>15</v>
       </c>
-      <c r="F18">
-        <v>9999</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="5">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3">
         <v>25</v>
       </c>
       <c r="H18">
@@ -2078,16 +2393,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
+        <v>444</v>
+      </c>
+      <c r="D19" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" s="5">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>9999</v>
       </c>
       <c r="G19">
         <v>9999</v>
@@ -2101,16 +2419,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
         <v>5</v>
-      </c>
-      <c r="F20">
-        <v>9999</v>
       </c>
       <c r="G20">
         <v>9999</v>
@@ -2124,13 +2442,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
       </c>
       <c r="F21">
         <v>9999</v>
@@ -2147,16 +2465,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="E22" s="5">
+        <v>16</v>
       </c>
       <c r="F22">
         <v>9999</v>
@@ -2173,19 +2488,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="E23" s="5">
+        <v>35</v>
       </c>
       <c r="F23">
         <v>9999</v>
       </c>
-      <c r="G23">
-        <v>9999</v>
+      <c r="G23" s="3">
+        <v>35</v>
       </c>
       <c r="H23">
         <v>9999</v>
@@ -2195,20 +2510,23 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>75</v>
+      <c r="B24" t="s">
+        <v>468</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24">
-        <v>28</v>
+        <v>400</v>
+      </c>
+      <c r="D24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E24" s="5">
+        <v>35</v>
       </c>
       <c r="F24">
         <v>9999</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>9999</v>
       </c>
       <c r="H24">
         <v>9999</v>
@@ -2219,13 +2537,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25">
-        <v>12</v>
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="5">
+        <v>18</v>
       </c>
       <c r="F25">
         <v>9999</v>
@@ -2242,13 +2563,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
       </c>
       <c r="F26">
         <v>9999</v>
@@ -2265,22 +2586,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>365</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="E27" s="5">
+        <v>28</v>
       </c>
       <c r="F27">
         <v>9999</v>
       </c>
-      <c r="G27">
-        <v>2</v>
+      <c r="G27" s="3">
+        <v>28</v>
       </c>
       <c r="H27">
         <v>9999</v>
@@ -2291,22 +2609,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
+        <v>376</v>
+      </c>
+      <c r="E28" s="5">
+        <v>12</v>
       </c>
       <c r="F28">
         <v>9999</v>
       </c>
-      <c r="G28">
-        <v>9999</v>
+      <c r="G28" s="3">
+        <v>32</v>
       </c>
       <c r="H28">
         <v>9999</v>
@@ -2317,13 +2635,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29">
-        <v>30</v>
+        <v>79</v>
+      </c>
+      <c r="E29" s="5">
+        <v>22</v>
       </c>
       <c r="F29">
         <v>9999</v>
@@ -2340,22 +2658,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30">
-        <v>29</v>
+        <v>349</v>
+      </c>
+      <c r="E30" s="5">
+        <v>5</v>
       </c>
       <c r="F30">
         <v>9999</v>
       </c>
-      <c r="G30">
-        <v>29</v>
+      <c r="G30" s="3">
+        <v>2</v>
       </c>
       <c r="H30">
         <v>9999</v>
@@ -2366,16 +2684,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="E31" s="5">
+        <v>10</v>
       </c>
       <c r="F31">
         <v>9999</v>
@@ -2392,19 +2710,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="E32" s="5">
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>9999</v>
       </c>
       <c r="G32">
         <v>9999</v>
@@ -2418,19 +2733,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>382</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>383</v>
-      </c>
-      <c r="E33">
-        <v>16</v>
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="5">
+        <v>29</v>
       </c>
       <c r="F33">
         <v>9999</v>
       </c>
-      <c r="G33">
-        <v>16</v>
+      <c r="G33" s="3">
+        <v>29</v>
       </c>
       <c r="H33">
         <v>9999</v>
@@ -2441,13 +2759,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
       </c>
       <c r="F34">
         <v>9999</v>
@@ -2464,19 +2785,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>401</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35">
-        <v>23</v>
+        <v>402</v>
+      </c>
+      <c r="D35" t="s">
+        <v>376</v>
+      </c>
+      <c r="E35" s="5">
+        <v>36</v>
       </c>
       <c r="F35">
         <v>9999</v>
       </c>
-      <c r="G35">
-        <v>23</v>
+      <c r="G35" s="3">
+        <v>36</v>
       </c>
       <c r="H35">
         <v>9999</v>
@@ -2487,19 +2811,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-      <c r="F36">
-        <v>9999</v>
+        <v>47</v>
+      </c>
+      <c r="E36" s="5">
+        <v>15</v>
+      </c>
+      <c r="F36" s="5">
+        <v>24</v>
       </c>
       <c r="G36">
         <v>9999</v>
@@ -2513,19 +2837,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>420</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37">
-        <v>16</v>
+        <v>419</v>
+      </c>
+      <c r="E37" s="5">
+        <v>11</v>
       </c>
       <c r="F37">
         <v>9999</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>9999</v>
       </c>
       <c r="H37">
         <v>9999</v>
@@ -2536,19 +2860,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38">
-        <v>23</v>
+        <v>367</v>
+      </c>
+      <c r="E38" s="5">
+        <v>16</v>
       </c>
       <c r="F38">
         <v>9999</v>
       </c>
-      <c r="G38">
-        <v>9999</v>
+      <c r="G38" s="3">
+        <v>16</v>
       </c>
       <c r="H38">
         <v>9999</v>
@@ -2559,16 +2883,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
+        <v>95</v>
+      </c>
+      <c r="E39" s="5">
+        <v>30</v>
       </c>
       <c r="F39">
         <v>9999</v>
@@ -2585,42 +2906,48 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>22</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
-      </c>
-      <c r="H40">
-        <v>9999</v>
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>462</v>
+      </c>
+      <c r="E40" s="5">
+        <v>23</v>
+      </c>
+      <c r="F40" s="5">
+        <v>38</v>
+      </c>
+      <c r="G40" s="3">
+        <v>23</v>
+      </c>
+      <c r="H40" s="3">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>109</v>
+      <c r="B41" t="s">
+        <v>469</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41">
-        <v>17</v>
+        <v>400</v>
+      </c>
+      <c r="D41" t="s">
+        <v>362</v>
+      </c>
+      <c r="E41" s="5">
+        <v>35</v>
       </c>
       <c r="F41">
         <v>9999</v>
       </c>
       <c r="G41">
-        <v>17</v>
+        <v>9999</v>
       </c>
       <c r="H41">
         <v>9999</v>
@@ -2631,13 +2958,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="5">
+        <v>7</v>
       </c>
       <c r="F42">
         <v>9999</v>
@@ -2654,19 +2984,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>379</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>380</v>
-      </c>
-      <c r="E43">
-        <v>9999</v>
+        <v>102</v>
+      </c>
+      <c r="E43" s="5">
+        <v>16</v>
       </c>
       <c r="F43">
         <v>9999</v>
       </c>
-      <c r="G43">
-        <v>12</v>
+      <c r="G43" s="3">
+        <v>16</v>
       </c>
       <c r="H43">
         <v>9999</v>
@@ -2676,17 +3006,17 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>113</v>
+      <c r="B44" t="s">
+        <v>460</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="D44" t="s">
+        <v>462</v>
+      </c>
+      <c r="E44" s="5">
         <v>34</v>
-      </c>
-      <c r="E44">
-        <v>26</v>
       </c>
       <c r="F44">
         <v>9999</v>
@@ -2703,16 +3033,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="E45" s="5">
+        <v>10</v>
       </c>
       <c r="F45">
         <v>9999</v>
@@ -2729,19 +3059,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>435</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="E46" s="5">
+        <v>31</v>
       </c>
       <c r="F46">
         <v>9999</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>9999</v>
       </c>
       <c r="H46">
         <v>9999</v>
@@ -2752,19 +3082,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47">
-        <v>25</v>
-      </c>
-      <c r="F47">
-        <v>9999</v>
-      </c>
-      <c r="G47">
-        <v>9999</v>
+        <v>105</v>
+      </c>
+      <c r="E47" s="5">
+        <v>5</v>
+      </c>
+      <c r="F47" s="5">
+        <v>22</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5</v>
       </c>
       <c r="H47">
         <v>9999</v>
@@ -2775,19 +3105,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
+        <v>107</v>
+      </c>
+      <c r="E48" s="5">
+        <v>17</v>
       </c>
       <c r="F48">
         <v>9999</v>
       </c>
-      <c r="G48">
-        <v>9999</v>
+      <c r="G48" s="3">
+        <v>17</v>
       </c>
       <c r="H48">
         <v>9999</v>
@@ -2798,13 +3128,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="E49" s="5">
+        <v>4</v>
       </c>
       <c r="F49">
         <v>9999</v>
@@ -2821,19 +3151,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50">
-        <v>24</v>
+        <v>408</v>
+      </c>
+      <c r="D50" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" s="5">
+        <v>38</v>
       </c>
       <c r="F50">
         <v>9999</v>
       </c>
-      <c r="G50">
-        <v>9999</v>
+      <c r="G50" s="3">
+        <v>38</v>
       </c>
       <c r="H50">
         <v>9999</v>
@@ -2844,22 +3177,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>124</v>
+        <v>405</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>406</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51">
-        <v>15</v>
+        <v>362</v>
+      </c>
+      <c r="E51" s="5">
+        <v>37</v>
       </c>
       <c r="F51">
         <v>9999</v>
       </c>
-      <c r="G51">
-        <v>8</v>
+      <c r="G51" s="3">
+        <v>37</v>
       </c>
       <c r="H51">
         <v>9999</v>
@@ -2870,22 +3203,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>363</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
+        <v>364</v>
       </c>
       <c r="E52">
-        <v>19</v>
+        <v>9999</v>
       </c>
       <c r="F52">
         <v>9999</v>
       </c>
-      <c r="G52">
-        <v>9999</v>
+      <c r="G52" s="3">
+        <v>12</v>
       </c>
       <c r="H52">
         <v>9999</v>
@@ -2896,22 +3226,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="E53" s="5">
+        <v>26</v>
       </c>
       <c r="F53">
         <v>9999</v>
       </c>
       <c r="G53">
-        <v>19</v>
+        <v>9999</v>
       </c>
       <c r="H53">
         <v>9999</v>
@@ -2922,16 +3252,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="E54" s="5">
+        <v>7</v>
       </c>
       <c r="F54">
         <v>9999</v>
@@ -2948,22 +3278,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>494</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55">
-        <v>7</v>
+        <v>113</v>
+      </c>
+      <c r="E55" s="5">
+        <v>3</v>
       </c>
       <c r="F55">
         <v>9999</v>
       </c>
-      <c r="G55">
-        <v>9999</v>
+      <c r="G55" s="3">
+        <v>3</v>
       </c>
       <c r="H55">
         <v>9999</v>
@@ -2974,16 +3301,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56">
-        <v>27</v>
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="5">
+        <v>25</v>
       </c>
       <c r="F56">
         <v>9999</v>
       </c>
       <c r="G56">
-        <v>27</v>
+        <v>9999</v>
       </c>
       <c r="H56">
         <v>9999</v>
@@ -2994,19 +3324,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2</v>
       </c>
       <c r="F57">
         <v>9999</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>9999</v>
       </c>
       <c r="H57">
         <v>9999</v>
@@ -3017,16 +3347,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58">
-        <v>13</v>
+        <v>81</v>
+      </c>
+      <c r="E58" s="5">
+        <v>11</v>
       </c>
       <c r="F58">
         <v>9999</v>
@@ -3043,19 +3370,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59">
-        <v>25</v>
+        <v>119</v>
+      </c>
+      <c r="E59" s="5">
+        <v>24</v>
       </c>
       <c r="F59">
         <v>9999</v>
       </c>
       <c r="G59">
-        <v>14</v>
+        <v>9999</v>
       </c>
       <c r="H59">
         <v>9999</v>
@@ -3066,22 +3393,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60">
+        <v>89</v>
+      </c>
+      <c r="E60" s="5">
+        <v>15</v>
+      </c>
+      <c r="F60">
+        <v>9999</v>
+      </c>
+      <c r="G60" s="3">
         <v>8</v>
-      </c>
-      <c r="F60">
-        <v>14</v>
-      </c>
-      <c r="G60">
-        <v>9999</v>
       </c>
       <c r="H60">
         <v>9999</v>
@@ -3092,16 +3419,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="E61" s="5">
+        <v>19</v>
       </c>
       <c r="F61">
         <v>9999</v>
@@ -3118,19 +3445,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="5">
+        <v>19</v>
       </c>
       <c r="F62">
         <v>9999</v>
       </c>
-      <c r="G62">
-        <v>9999</v>
+      <c r="G62" s="3">
+        <v>19</v>
       </c>
       <c r="H62">
         <v>9999</v>
@@ -3141,16 +3471,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="E63" s="5">
+        <v>21</v>
       </c>
       <c r="F63">
         <v>9999</v>
@@ -3167,13 +3497,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64">
-        <v>16</v>
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="5">
+        <v>7</v>
       </c>
       <c r="F64">
         <v>9999</v>
@@ -3190,19 +3523,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65">
-        <v>28</v>
-      </c>
-      <c r="F65">
-        <v>9999</v>
-      </c>
-      <c r="G65">
-        <v>9999</v>
+        <v>445</v>
+      </c>
+      <c r="D65" t="s">
+        <v>376</v>
+      </c>
+      <c r="E65" s="5">
+        <v>27</v>
+      </c>
+      <c r="F65" s="5">
+        <v>32</v>
+      </c>
+      <c r="G65" s="3">
+        <v>27</v>
       </c>
       <c r="H65">
         <v>9999</v>
@@ -3213,16 +3549,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66">
-        <v>27</v>
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3</v>
       </c>
       <c r="F66">
         <v>9999</v>
       </c>
-      <c r="G66">
-        <v>9999</v>
+      <c r="G66" s="3">
+        <v>30</v>
       </c>
       <c r="H66">
         <v>9999</v>
@@ -3232,17 +3571,20 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
+      <c r="B67" t="s">
+        <v>475</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67">
-        <v>3</v>
+        <v>476</v>
+      </c>
+      <c r="D67" t="s">
+        <v>376</v>
+      </c>
+      <c r="E67" s="5">
+        <v>36</v>
       </c>
       <c r="F67">
-        <v>30</v>
+        <v>9999</v>
       </c>
       <c r="G67">
         <v>9999</v>
@@ -3256,22 +3598,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="C68" t="s">
-        <v>391</v>
+        <v>134</v>
       </c>
       <c r="D68" t="s">
-        <v>392</v>
-      </c>
-      <c r="E68">
-        <v>9999</v>
-      </c>
-      <c r="F68">
-        <v>9999</v>
+        <v>34</v>
+      </c>
+      <c r="E68" s="5">
+        <v>13</v>
+      </c>
+      <c r="F68" s="5">
+        <v>32</v>
       </c>
       <c r="G68">
-        <v>27</v>
+        <v>9999</v>
       </c>
       <c r="H68">
         <v>9999</v>
@@ -3282,16 +3624,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>152</v>
+        <v>431</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69">
-        <v>9</v>
+        <v>432</v>
+      </c>
+      <c r="E69" s="5">
+        <v>31</v>
       </c>
       <c r="F69">
         <v>9999</v>
@@ -3308,22 +3647,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="E70" s="5">
+        <v>25</v>
       </c>
       <c r="F70">
         <v>9999</v>
       </c>
-      <c r="G70">
-        <v>9999</v>
+      <c r="G70" s="3">
+        <v>14</v>
       </c>
       <c r="H70">
         <v>9999</v>
@@ -3334,19 +3673,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71">
-        <v>13</v>
-      </c>
-      <c r="F71">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="E71" s="5">
+        <v>8</v>
+      </c>
+      <c r="F71" s="5">
+        <v>14</v>
       </c>
       <c r="G71">
         <v>9999</v>
@@ -3359,17 +3698,17 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>159</v>
+      <c r="B72" t="s">
+        <v>451</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>452</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72">
-        <v>10</v>
+        <v>362</v>
+      </c>
+      <c r="E72" s="5">
+        <v>33</v>
       </c>
       <c r="F72">
         <v>9999</v>
@@ -3386,16 +3725,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="E73" s="5">
+        <v>10</v>
       </c>
       <c r="F73">
         <v>9999</v>
@@ -3412,22 +3751,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>367</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>368</v>
-      </c>
-      <c r="D74" t="s">
-        <v>365</v>
-      </c>
-      <c r="E74">
-        <v>9999</v>
+        <v>48</v>
+      </c>
+      <c r="E74" s="5">
+        <v>23</v>
       </c>
       <c r="F74">
         <v>9999</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>9999</v>
       </c>
       <c r="H74">
         <v>9999</v>
@@ -3438,22 +3774,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
-      </c>
-      <c r="E75">
-        <v>18</v>
+        <v>51</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1</v>
       </c>
       <c r="F75">
         <v>9999</v>
       </c>
       <c r="G75">
-        <v>18</v>
+        <v>9999</v>
       </c>
       <c r="H75">
         <v>9999</v>
@@ -3463,17 +3799,20 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>8</v>
+      <c r="B76" t="s">
+        <v>466</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
+        <v>467</v>
+      </c>
+      <c r="D76" t="s">
+        <v>362</v>
+      </c>
+      <c r="E76" s="5">
+        <v>35</v>
       </c>
       <c r="F76">
-        <v>22</v>
+        <v>9999</v>
       </c>
       <c r="G76">
         <v>9999</v>
@@ -3487,19 +3826,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
-      </c>
-      <c r="D77" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77">
-        <v>10</v>
-      </c>
-      <c r="F77">
-        <v>9999</v>
+        <v>142</v>
+      </c>
+      <c r="E77" s="5">
+        <v>16</v>
+      </c>
+      <c r="F77" s="5">
+        <v>31</v>
       </c>
       <c r="G77">
         <v>9999</v>
@@ -3513,22 +3849,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
-      </c>
-      <c r="E78">
-        <v>15</v>
+        <v>362</v>
+      </c>
+      <c r="E78" s="5">
+        <v>28</v>
       </c>
       <c r="F78">
         <v>9999</v>
       </c>
-      <c r="G78">
-        <v>9999</v>
+      <c r="G78" s="3">
+        <v>33</v>
       </c>
       <c r="H78">
         <v>9999</v>
@@ -3539,13 +3875,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" t="s">
-        <v>169</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="E79" s="5">
+        <v>27</v>
       </c>
       <c r="F79">
         <v>9999</v>
@@ -3562,19 +3895,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
-      </c>
-      <c r="E80">
-        <v>25</v>
-      </c>
-      <c r="F80">
-        <v>9999</v>
+        <v>146</v>
+      </c>
+      <c r="E80" s="5">
+        <v>3</v>
+      </c>
+      <c r="F80" s="5">
+        <v>30</v>
       </c>
       <c r="G80">
-        <v>25</v>
+        <v>9999</v>
       </c>
       <c r="H80">
         <v>9999</v>
@@ -3584,17 +3917,20 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>9</v>
+      <c r="B81" t="s">
+        <v>483</v>
       </c>
       <c r="C81" t="s">
-        <v>363</v>
-      </c>
-      <c r="E81">
-        <v>11</v>
+        <v>484</v>
+      </c>
+      <c r="D81" t="s">
+        <v>350</v>
+      </c>
+      <c r="E81" s="5">
+        <v>38</v>
       </c>
       <c r="F81">
-        <v>24</v>
+        <v>9999</v>
       </c>
       <c r="G81">
         <v>9999</v>
@@ -3608,19 +3944,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>171</v>
+        <v>447</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82">
-        <v>11</v>
+        <v>445</v>
+      </c>
+      <c r="D82" t="s">
+        <v>376</v>
+      </c>
+      <c r="E82" s="5">
+        <v>32</v>
       </c>
       <c r="F82">
         <v>9999</v>
       </c>
       <c r="G82">
-        <v>11</v>
+        <v>9999</v>
       </c>
       <c r="H82">
         <v>9999</v>
@@ -3630,20 +3969,23 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>10</v>
+      <c r="B83" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83">
-        <v>4</v>
+        <v>404</v>
+      </c>
+      <c r="D83" t="s">
+        <v>376</v>
+      </c>
+      <c r="E83" s="5">
+        <v>36</v>
       </c>
       <c r="F83">
-        <v>22</v>
-      </c>
-      <c r="G83">
-        <v>9999</v>
+        <v>9999</v>
+      </c>
+      <c r="G83" s="3">
+        <v>36</v>
       </c>
       <c r="H83">
         <v>9999</v>
@@ -3654,19 +3996,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>172</v>
+        <v>374</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>375</v>
+      </c>
+      <c r="D84" t="s">
+        <v>376</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>9999</v>
       </c>
       <c r="F84">
         <v>9999</v>
       </c>
-      <c r="G84">
-        <v>9999</v>
+      <c r="G84" s="3">
+        <v>27</v>
       </c>
       <c r="H84">
         <v>9999</v>
@@ -3677,13 +4022,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
+        <v>148</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="5">
+        <v>9</v>
       </c>
       <c r="F85">
         <v>9999</v>
@@ -3700,16 +4048,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
-      </c>
-      <c r="E86">
-        <v>22</v>
-      </c>
-      <c r="F86">
-        <v>9999</v>
+        <v>150</v>
+      </c>
+      <c r="D86" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="5">
+        <v>13</v>
+      </c>
+      <c r="F86" s="5">
+        <v>19</v>
       </c>
       <c r="G86">
         <v>9999</v>
@@ -3723,19 +4074,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D87" t="s">
-        <v>51</v>
-      </c>
-      <c r="E87">
+        <v>34</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
         <v>10</v>
-      </c>
-      <c r="F87">
-        <v>9999</v>
       </c>
       <c r="G87">
         <v>9999</v>
@@ -3749,22 +4100,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="E88">
-        <v>9</v>
+        <v>9999</v>
       </c>
       <c r="F88">
         <v>9999</v>
       </c>
-      <c r="G88">
-        <v>9999</v>
+      <c r="G88" s="3">
+        <v>31</v>
       </c>
       <c r="H88">
         <v>9999</v>
@@ -3775,19 +4123,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89">
-        <v>7</v>
+        <v>89</v>
+      </c>
+      <c r="E89" s="5">
+        <v>8</v>
       </c>
       <c r="F89">
-        <v>29</v>
+        <v>9999</v>
       </c>
       <c r="G89">
         <v>9999</v>
@@ -3800,14 +4148,17 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>183</v>
+      <c r="B90" t="s">
+        <v>470</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90">
-        <v>4</v>
+        <v>471</v>
+      </c>
+      <c r="D90" t="s">
+        <v>398</v>
+      </c>
+      <c r="E90" s="5">
+        <v>35</v>
       </c>
       <c r="F90">
         <v>9999</v>
@@ -3824,22 +4175,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>352</v>
       </c>
       <c r="D91" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>9999</v>
       </c>
       <c r="F91">
-        <v>6</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
+        <v>9999</v>
+      </c>
+      <c r="G91" s="3">
+        <v>4</v>
       </c>
       <c r="H91">
         <v>9999</v>
@@ -3850,19 +4201,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
-      </c>
-      <c r="E92">
-        <v>24</v>
+        <v>157</v>
+      </c>
+      <c r="D92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="5">
+        <v>18</v>
       </c>
       <c r="F92">
         <v>9999</v>
       </c>
-      <c r="G92">
-        <v>24</v>
+      <c r="G92" s="3">
+        <v>18</v>
       </c>
       <c r="H92">
         <v>9999</v>
@@ -3873,16 +4227,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93">
-        <v>17</v>
-      </c>
-      <c r="F93">
-        <v>9999</v>
+        <v>95</v>
+      </c>
+      <c r="E93" s="5">
+        <v>4</v>
+      </c>
+      <c r="F93" s="5">
+        <v>22</v>
       </c>
       <c r="G93">
         <v>9999</v>
@@ -3895,14 +4249,17 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>190</v>
+      <c r="B94" t="s">
+        <v>474</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
-      </c>
-      <c r="E94">
-        <v>16</v>
+        <v>404</v>
+      </c>
+      <c r="D94" t="s">
+        <v>376</v>
+      </c>
+      <c r="E94" s="5">
+        <v>36</v>
       </c>
       <c r="F94">
         <v>9999</v>
@@ -3919,16 +4276,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" t="s">
-        <v>194</v>
-      </c>
-      <c r="E95">
-        <v>29</v>
+        <v>162</v>
+      </c>
+      <c r="E95" s="5">
+        <v>3</v>
       </c>
       <c r="F95">
         <v>9999</v>
@@ -3945,13 +4299,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
-      </c>
-      <c r="E96">
-        <v>25</v>
+        <v>159</v>
+      </c>
+      <c r="D96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="5">
+        <v>10</v>
       </c>
       <c r="F96">
         <v>9999</v>
@@ -3968,19 +4325,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E97">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="E97" s="5">
+        <v>15</v>
       </c>
       <c r="F97">
-        <v>21</v>
+        <v>9999</v>
       </c>
       <c r="G97">
         <v>9999</v>
@@ -3994,22 +4351,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
-      </c>
-      <c r="D98" t="s">
-        <v>85</v>
-      </c>
-      <c r="E98">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="E98" s="5">
+        <v>25</v>
       </c>
       <c r="F98">
         <v>9999</v>
       </c>
-      <c r="G98">
-        <v>9999</v>
+      <c r="G98" s="3">
+        <v>25</v>
       </c>
       <c r="H98">
         <v>9999</v>
@@ -4020,16 +4374,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
-      </c>
-      <c r="E99">
-        <v>17</v>
-      </c>
-      <c r="F99">
-        <v>9999</v>
+        <v>347</v>
+      </c>
+      <c r="E99" s="5">
+        <v>11</v>
+      </c>
+      <c r="F99" s="5">
+        <v>24</v>
       </c>
       <c r="G99">
         <v>9999</v>
@@ -4043,22 +4397,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
-      </c>
-      <c r="D100" t="s">
-        <v>85</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E100" s="5">
+        <v>11</v>
       </c>
       <c r="F100">
         <v>9999</v>
       </c>
-      <c r="G100">
-        <v>9999</v>
+      <c r="G100" s="3">
+        <v>11</v>
       </c>
       <c r="H100">
         <v>9999</v>
@@ -4069,16 +4420,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
-      </c>
-      <c r="E101">
-        <v>2</v>
-      </c>
-      <c r="F101">
+        <v>95</v>
+      </c>
+      <c r="E101" s="5">
         <v>4</v>
+      </c>
+      <c r="F101" s="5">
+        <v>22</v>
       </c>
       <c r="G101">
         <v>9999</v>
@@ -4092,13 +4443,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
-        <v>82</v>
-      </c>
-      <c r="E102">
-        <v>4</v>
+        <v>166</v>
+      </c>
+      <c r="E102" s="5">
+        <v>5</v>
       </c>
       <c r="F102">
         <v>9999</v>
@@ -4115,19 +4466,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
-      </c>
-      <c r="E103">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="E103" s="5">
+        <v>2</v>
       </c>
       <c r="F103">
         <v>9999</v>
       </c>
       <c r="G103">
-        <v>22</v>
+        <v>9999</v>
       </c>
       <c r="H103">
         <v>9999</v>
@@ -4137,20 +4488,20 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>14</v>
+      <c r="B104" t="s">
+        <v>472</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>404</v>
       </c>
       <c r="D104" t="s">
-        <v>85</v>
-      </c>
-      <c r="E104">
-        <v>6</v>
+        <v>376</v>
+      </c>
+      <c r="E104" s="5">
+        <v>36</v>
       </c>
       <c r="F104">
-        <v>9</v>
+        <v>9999</v>
       </c>
       <c r="G104">
         <v>9999</v>
@@ -4164,13 +4515,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
-      </c>
-      <c r="E105">
-        <v>16</v>
+        <v>170</v>
+      </c>
+      <c r="E105" s="5">
+        <v>22</v>
       </c>
       <c r="F105">
         <v>9999</v>
@@ -4187,16 +4538,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="C106" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="D106" t="s">
-        <v>206</v>
-      </c>
-      <c r="E106">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="E106" s="5">
+        <v>10</v>
       </c>
       <c r="F106">
         <v>9999</v>
@@ -4213,13 +4564,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
-      </c>
-      <c r="E107">
-        <v>12</v>
+        <v>174</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" s="5">
+        <v>9</v>
       </c>
       <c r="F107">
         <v>9999</v>
@@ -4236,19 +4590,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>15</v>
+        <v>464</v>
       </c>
       <c r="C108" t="s">
-        <v>209</v>
+        <v>465</v>
       </c>
       <c r="D108" t="s">
-        <v>210</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
+        <v>349</v>
+      </c>
+      <c r="E108" s="5">
+        <v>35</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>9999</v>
       </c>
       <c r="G108">
         <v>9999</v>
@@ -4262,13 +4616,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E109">
-        <v>27</v>
-      </c>
-      <c r="F109">
-        <v>9999</v>
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>175</v>
+      </c>
+      <c r="D109" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="5">
+        <v>7</v>
+      </c>
+      <c r="F109" s="5">
+        <v>29</v>
       </c>
       <c r="G109">
         <v>9999</v>
@@ -4282,16 +4642,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
-      </c>
-      <c r="D110" t="s">
-        <v>85</v>
-      </c>
-      <c r="E110">
-        <v>14</v>
+        <v>177</v>
+      </c>
+      <c r="E110" s="5">
+        <v>4</v>
       </c>
       <c r="F110">
         <v>9999</v>
@@ -4308,19 +4665,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
-      </c>
-      <c r="E111">
+        <v>50</v>
+      </c>
+      <c r="D111" t="s">
+        <v>350</v>
+      </c>
+      <c r="E111" s="5">
         <v>5</v>
       </c>
-      <c r="F111">
-        <v>22</v>
-      </c>
-      <c r="G111">
-        <v>9999</v>
+      <c r="F111" s="5">
+        <v>6</v>
+      </c>
+      <c r="G111" s="3">
+        <v>2</v>
       </c>
       <c r="H111">
         <v>9999</v>
@@ -4331,19 +4691,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>372</v>
+        <v>179</v>
       </c>
       <c r="C112" t="s">
-        <v>373</v>
-      </c>
-      <c r="E112">
-        <v>9999</v>
+        <v>180</v>
+      </c>
+      <c r="E112" s="5">
+        <v>24</v>
       </c>
       <c r="F112">
         <v>9999</v>
       </c>
-      <c r="G112">
-        <v>7</v>
+      <c r="G112" s="3">
+        <v>24</v>
       </c>
       <c r="H112">
         <v>9999</v>
@@ -4354,16 +4714,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C113" t="s">
-        <v>216</v>
-      </c>
-      <c r="D113" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113">
-        <v>19</v>
+        <v>182</v>
+      </c>
+      <c r="E113" s="5">
+        <v>17</v>
       </c>
       <c r="F113">
         <v>9999</v>
@@ -4380,19 +4737,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
-        <v>217</v>
-      </c>
-      <c r="D114" t="s">
-        <v>85</v>
-      </c>
-      <c r="E114">
-        <v>6</v>
+        <v>184</v>
+      </c>
+      <c r="E114" s="5">
+        <v>16</v>
       </c>
       <c r="F114">
-        <v>9</v>
+        <v>9999</v>
       </c>
       <c r="G114">
         <v>9999</v>
@@ -4406,13 +4760,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
-      </c>
-      <c r="E115">
-        <v>3</v>
+        <v>186</v>
+      </c>
+      <c r="D115" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" s="5">
+        <v>29</v>
       </c>
       <c r="F115">
         <v>9999</v>
@@ -4429,12 +4786,12 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C116" t="s">
-        <v>221</v>
-      </c>
-      <c r="E116">
+        <v>189</v>
+      </c>
+      <c r="E116" s="5">
         <v>25</v>
       </c>
       <c r="F116">
@@ -4452,16 +4809,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>222</v>
-      </c>
-      <c r="E117">
-        <v>16</v>
-      </c>
-      <c r="F117">
-        <v>20</v>
+        <v>109</v>
+      </c>
+      <c r="D117" t="s">
+        <v>61</v>
+      </c>
+      <c r="E117" s="5">
+        <v>4</v>
+      </c>
+      <c r="F117" s="5">
+        <v>21</v>
       </c>
       <c r="G117">
         <v>9999</v>
@@ -4475,16 +4835,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>364</v>
-      </c>
-      <c r="E118">
-        <v>4</v>
+        <v>191</v>
+      </c>
+      <c r="D118" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" s="5">
+        <v>7</v>
       </c>
       <c r="F118">
-        <v>22</v>
+        <v>9999</v>
       </c>
       <c r="G118">
         <v>9999</v>
@@ -4498,13 +4861,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C119" t="s">
-        <v>224</v>
-      </c>
-      <c r="E119">
-        <v>6</v>
+        <v>107</v>
+      </c>
+      <c r="E119" s="5">
+        <v>17</v>
       </c>
       <c r="F119">
         <v>9999</v>
@@ -4521,16 +4884,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C120" t="s">
-        <v>226</v>
-      </c>
-      <c r="E120">
-        <v>2</v>
-      </c>
-      <c r="F120">
-        <v>9999</v>
+        <v>79</v>
+      </c>
+      <c r="D120" t="s">
+        <v>84</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1</v>
+      </c>
+      <c r="F120" s="5">
+        <v>31</v>
       </c>
       <c r="G120">
         <v>9999</v>
@@ -4544,13 +4910,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="C121" t="s">
-        <v>228</v>
-      </c>
-      <c r="E121">
-        <v>25</v>
+        <v>415</v>
+      </c>
+      <c r="E121" s="5">
+        <v>11</v>
       </c>
       <c r="F121">
         <v>9999</v>
@@ -4567,16 +4933,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>230</v>
-      </c>
-      <c r="E122">
-        <v>6</v>
-      </c>
-      <c r="F122">
-        <v>9999</v>
+        <v>67</v>
+      </c>
+      <c r="E122" s="5">
+        <v>2</v>
+      </c>
+      <c r="F122" s="5">
+        <v>4</v>
       </c>
       <c r="G122">
         <v>9999</v>
@@ -4590,19 +4956,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="C123" t="s">
-        <v>232</v>
-      </c>
-      <c r="E123">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="E123" s="5">
+        <v>4</v>
       </c>
       <c r="F123">
         <v>9999</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>9999</v>
       </c>
       <c r="H123">
         <v>9999</v>
@@ -4613,19 +4979,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="C124" t="s">
-        <v>375</v>
-      </c>
-      <c r="E124">
-        <v>9999</v>
+        <v>428</v>
+      </c>
+      <c r="E124" s="5">
+        <v>24</v>
       </c>
       <c r="F124">
         <v>9999</v>
       </c>
       <c r="G124">
-        <v>9</v>
+        <v>9999</v>
       </c>
       <c r="H124">
         <v>9999</v>
@@ -4635,17 +5001,17 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>233</v>
+      <c r="B125" t="s">
+        <v>458</v>
       </c>
       <c r="C125" t="s">
-        <v>141</v>
+        <v>459</v>
       </c>
       <c r="D125" t="s">
-        <v>62</v>
-      </c>
-      <c r="E125">
-        <v>8</v>
+        <v>426</v>
+      </c>
+      <c r="E125" s="5">
+        <v>34</v>
       </c>
       <c r="F125">
         <v>9999</v>
@@ -4662,22 +5028,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>234</v>
+        <v>442</v>
       </c>
       <c r="C126" t="s">
-        <v>45</v>
-      </c>
-      <c r="D126" t="s">
-        <v>62</v>
-      </c>
-      <c r="E126">
-        <v>10</v>
+        <v>390</v>
+      </c>
+      <c r="E126" s="5">
+        <v>31</v>
       </c>
       <c r="F126">
         <v>9999</v>
       </c>
       <c r="G126">
-        <v>15</v>
+        <v>9999</v>
       </c>
       <c r="H126">
         <v>9999</v>
@@ -4688,22 +5051,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="C127" t="s">
-        <v>141</v>
-      </c>
-      <c r="D127" t="s">
-        <v>62</v>
-      </c>
-      <c r="E127">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="E127" s="5">
+        <v>5</v>
       </c>
       <c r="F127">
-        <v>18</v>
-      </c>
-      <c r="G127">
-        <v>15</v>
+        <v>9999</v>
+      </c>
+      <c r="G127" s="3">
+        <v>22</v>
       </c>
       <c r="H127">
         <v>9999</v>
@@ -4714,22 +5074,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>235</v>
+        <v>448</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>393</v>
       </c>
       <c r="D128" t="s">
-        <v>157</v>
-      </c>
-      <c r="E128">
-        <v>19</v>
+        <v>376</v>
+      </c>
+      <c r="E128" s="5">
+        <v>32</v>
       </c>
       <c r="F128">
         <v>9999</v>
       </c>
-      <c r="G128">
-        <v>9999</v>
+      <c r="G128" s="3">
+        <v>32</v>
       </c>
       <c r="H128">
         <v>9999</v>
@@ -4740,13 +5100,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>237</v>
+        <v>449</v>
       </c>
       <c r="C129" t="s">
-        <v>82</v>
-      </c>
-      <c r="E129">
-        <v>11</v>
+        <v>444</v>
+      </c>
+      <c r="D129" t="s">
+        <v>409</v>
+      </c>
+      <c r="E129" s="5">
+        <v>32</v>
       </c>
       <c r="F129">
         <v>9999</v>
@@ -4763,22 +5126,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="D130" t="s">
-        <v>240</v>
-      </c>
-      <c r="E130">
-        <v>19</v>
-      </c>
-      <c r="F130">
-        <v>9999</v>
+        <v>84</v>
+      </c>
+      <c r="E130" s="5">
+        <v>6</v>
+      </c>
+      <c r="F130" s="5">
+        <v>9</v>
       </c>
       <c r="G130">
-        <v>19</v>
+        <v>9999</v>
       </c>
       <c r="H130">
         <v>9999</v>
@@ -4789,19 +5152,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>242</v>
-      </c>
-      <c r="D131" t="s">
-        <v>85</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="E131" s="5">
+        <v>16</v>
       </c>
       <c r="F131">
-        <v>13</v>
+        <v>9999</v>
       </c>
       <c r="G131">
         <v>9999</v>
@@ -4815,16 +5175,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
-      </c>
-      <c r="E132">
-        <v>29</v>
+        <v>199</v>
+      </c>
+      <c r="E132" s="5">
+        <v>26</v>
       </c>
       <c r="F132">
         <v>9999</v>
@@ -4841,22 +5201,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>393</v>
+        <v>498</v>
       </c>
       <c r="C133" t="s">
-        <v>394</v>
-      </c>
-      <c r="D133" t="s">
-        <v>395</v>
-      </c>
-      <c r="E133">
-        <v>9999</v>
+        <v>200</v>
+      </c>
+      <c r="E133" s="5">
+        <v>12</v>
       </c>
       <c r="F133">
         <v>9999</v>
       </c>
       <c r="G133">
-        <v>29</v>
+        <v>9999</v>
       </c>
       <c r="H133">
         <v>9999</v>
@@ -4867,19 +5224,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="D134" t="s">
-        <v>47</v>
-      </c>
-      <c r="E134">
-        <v>15</v>
-      </c>
-      <c r="F134">
-        <v>9999</v>
+        <v>202</v>
+      </c>
+      <c r="E134" s="5">
+        <v>1</v>
+      </c>
+      <c r="F134" s="5">
+        <v>10</v>
       </c>
       <c r="G134">
         <v>9999</v>
@@ -4893,16 +5250,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>247</v>
+        <v>424</v>
       </c>
       <c r="C135" t="s">
-        <v>50</v>
+        <v>425</v>
       </c>
       <c r="D135" t="s">
-        <v>51</v>
-      </c>
-      <c r="E135">
-        <v>10</v>
+        <v>426</v>
+      </c>
+      <c r="E135" s="5">
+        <v>19</v>
       </c>
       <c r="F135">
         <v>9999</v>
@@ -4919,16 +5276,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C136" t="s">
-        <v>249</v>
-      </c>
-      <c r="D136" t="s">
-        <v>250</v>
-      </c>
-      <c r="E136">
-        <v>18</v>
+        <v>203</v>
+      </c>
+      <c r="E136" s="5">
+        <v>27</v>
       </c>
       <c r="F136">
         <v>9999</v>
@@ -4945,22 +5296,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C137" t="s">
-        <v>252</v>
-      </c>
-      <c r="D137" t="s">
-        <v>253</v>
+        <v>394</v>
       </c>
       <c r="E137">
-        <v>24</v>
+        <v>9999</v>
       </c>
       <c r="F137">
         <v>9999</v>
       </c>
-      <c r="G137">
-        <v>9999</v>
+      <c r="G137" s="3">
+        <v>34</v>
       </c>
       <c r="H137">
         <v>9999</v>
@@ -4971,13 +5316,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="C138" t="s">
-        <v>103</v>
-      </c>
-      <c r="E138">
-        <v>16</v>
+        <v>419</v>
+      </c>
+      <c r="E138" s="5">
+        <v>11</v>
       </c>
       <c r="F138">
         <v>9999</v>
@@ -4993,14 +5338,17 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>255</v>
+      <c r="B139" t="s">
+        <v>485</v>
       </c>
       <c r="C139" t="s">
-        <v>256</v>
-      </c>
-      <c r="E139">
-        <v>9</v>
+        <v>486</v>
+      </c>
+      <c r="D139" t="s">
+        <v>409</v>
+      </c>
+      <c r="E139" s="5">
+        <v>38</v>
       </c>
       <c r="F139">
         <v>9999</v>
@@ -5017,19 +5365,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>45</v>
-      </c>
-      <c r="E140">
-        <v>11</v>
-      </c>
-      <c r="F140">
-        <v>25</v>
+        <v>205</v>
+      </c>
+      <c r="E140" s="5">
+        <v>5</v>
+      </c>
+      <c r="F140" s="5">
+        <v>22</v>
       </c>
       <c r="G140">
-        <v>15</v>
+        <v>9999</v>
       </c>
       <c r="H140">
         <v>9999</v>
@@ -5040,19 +5388,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="C141" t="s">
-        <v>87</v>
+        <v>357</v>
       </c>
       <c r="E141">
-        <v>30</v>
+        <v>9999</v>
       </c>
       <c r="F141">
         <v>9999</v>
       </c>
-      <c r="G141">
-        <v>9999</v>
+      <c r="G141" s="3">
+        <v>7</v>
       </c>
       <c r="H141">
         <v>9999</v>
@@ -5063,22 +5411,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="C142" t="s">
-        <v>364</v>
-      </c>
-      <c r="E142">
-        <v>4</v>
-      </c>
-      <c r="F142">
-        <v>23</v>
+        <v>208</v>
+      </c>
+      <c r="D142" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" s="5">
+        <v>12</v>
+      </c>
+      <c r="F142" s="5">
+        <v>19</v>
       </c>
       <c r="G142">
-        <v>11</v>
+        <v>9999</v>
       </c>
       <c r="H142">
-        <v>22</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5086,16 +5437,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>50</v>
-      </c>
-      <c r="E143">
-        <v>5</v>
-      </c>
-      <c r="F143">
-        <v>9999</v>
+        <v>209</v>
+      </c>
+      <c r="D143" t="s">
+        <v>84</v>
+      </c>
+      <c r="E143" s="5">
+        <v>6</v>
+      </c>
+      <c r="F143" s="5">
+        <v>9</v>
       </c>
       <c r="G143">
         <v>9999</v>
@@ -5109,22 +5463,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="C144" t="s">
-        <v>259</v>
-      </c>
-      <c r="D144" t="s">
-        <v>85</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="E144" s="5">
+        <v>3</v>
       </c>
       <c r="F144">
         <v>9999</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="H144">
         <v>9999</v>
@@ -5135,16 +5486,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="C145" t="s">
-        <v>50</v>
-      </c>
-      <c r="D145" t="s">
-        <v>51</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="E145" s="5">
+        <v>25</v>
       </c>
       <c r="F145">
         <v>9999</v>
@@ -5161,19 +5509,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="C146" t="s">
-        <v>262</v>
-      </c>
-      <c r="D146" t="s">
-        <v>85</v>
-      </c>
-      <c r="E146">
-        <v>7</v>
-      </c>
-      <c r="F146">
-        <v>9999</v>
+        <v>214</v>
+      </c>
+      <c r="E146" s="5">
+        <v>16</v>
+      </c>
+      <c r="F146" s="5">
+        <v>20</v>
       </c>
       <c r="G146">
         <v>9999</v>
@@ -5187,16 +5532,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>264</v>
-      </c>
-      <c r="E147">
-        <v>20</v>
-      </c>
-      <c r="F147">
-        <v>9999</v>
+        <v>348</v>
+      </c>
+      <c r="E147" s="5">
+        <v>4</v>
+      </c>
+      <c r="F147" s="5">
+        <v>22</v>
       </c>
       <c r="G147">
         <v>9999</v>
@@ -5210,22 +5555,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C148" t="s">
-        <v>265</v>
-      </c>
-      <c r="D148" t="s">
-        <v>85</v>
-      </c>
-      <c r="E148">
-        <v>8</v>
+        <v>216</v>
+      </c>
+      <c r="E148" s="5">
+        <v>6</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>9999</v>
       </c>
       <c r="G148">
-        <v>12</v>
+        <v>9999</v>
       </c>
       <c r="H148">
         <v>9999</v>
@@ -5236,16 +5578,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C149" t="s">
-        <v>267</v>
-      </c>
-      <c r="D149" t="s">
-        <v>85</v>
-      </c>
-      <c r="E149">
-        <v>23</v>
+        <v>218</v>
+      </c>
+      <c r="E149" s="5">
+        <v>2</v>
       </c>
       <c r="F149">
         <v>9999</v>
@@ -5262,19 +5601,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="C150" t="s">
-        <v>269</v>
-      </c>
-      <c r="E150">
-        <v>3</v>
+        <v>220</v>
+      </c>
+      <c r="E150" s="5">
+        <v>25</v>
       </c>
       <c r="F150">
         <v>9999</v>
       </c>
       <c r="G150">
-        <v>3</v>
+        <v>9999</v>
       </c>
       <c r="H150">
         <v>9999</v>
@@ -5285,13 +5624,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="C151" t="s">
-        <v>271</v>
-      </c>
-      <c r="E151">
-        <v>30</v>
+        <v>222</v>
+      </c>
+      <c r="E151" s="5">
+        <v>6</v>
       </c>
       <c r="F151">
         <v>9999</v>
@@ -5308,19 +5647,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C152" t="s">
-        <v>103</v>
-      </c>
-      <c r="E152">
-        <v>16</v>
+        <v>224</v>
+      </c>
+      <c r="E152" s="5">
+        <v>5</v>
       </c>
       <c r="F152">
         <v>9999</v>
       </c>
-      <c r="G152">
-        <v>9999</v>
+      <c r="G152" s="3">
+        <v>5</v>
       </c>
       <c r="H152">
         <v>9999</v>
@@ -5331,19 +5670,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="E153">
-        <v>16</v>
+        <v>9999</v>
       </c>
       <c r="F153">
         <v>9999</v>
       </c>
-      <c r="G153">
-        <v>9999</v>
+      <c r="G153" s="3">
+        <v>9</v>
       </c>
       <c r="H153">
         <v>9999</v>
@@ -5354,19 +5693,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>369</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
-        <v>370</v>
-      </c>
-      <c r="E154">
-        <v>9999</v>
+        <v>136</v>
+      </c>
+      <c r="D154" t="s">
+        <v>62</v>
+      </c>
+      <c r="E154" s="5">
+        <v>8</v>
       </c>
       <c r="F154">
         <v>9999</v>
       </c>
       <c r="G154">
-        <v>6</v>
+        <v>9999</v>
       </c>
       <c r="H154">
         <v>9999</v>
@@ -5377,19 +5719,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="C155" t="s">
-        <v>275</v>
-      </c>
-      <c r="E155">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="D155" t="s">
+        <v>62</v>
+      </c>
+      <c r="E155" s="5">
+        <v>10</v>
       </c>
       <c r="F155">
         <v>9999</v>
       </c>
-      <c r="G155">
-        <v>30</v>
+      <c r="G155" s="3">
+        <v>15</v>
       </c>
       <c r="H155">
         <v>9999</v>
@@ -5400,19 +5745,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="C156" t="s">
-        <v>277</v>
-      </c>
-      <c r="E156">
-        <v>4</v>
-      </c>
-      <c r="F156">
-        <v>9999</v>
-      </c>
-      <c r="G156">
-        <v>9999</v>
+        <v>136</v>
+      </c>
+      <c r="D156" t="s">
+        <v>62</v>
+      </c>
+      <c r="E156" s="5">
+        <v>11</v>
+      </c>
+      <c r="F156" s="5">
+        <v>18</v>
+      </c>
+      <c r="G156" s="3">
+        <v>15</v>
       </c>
       <c r="H156">
         <v>9999</v>
@@ -5422,14 +5770,17 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>278</v>
+      <c r="B157" t="s">
+        <v>453</v>
       </c>
       <c r="C157" t="s">
-        <v>87</v>
-      </c>
-      <c r="E157">
-        <v>30</v>
+        <v>454</v>
+      </c>
+      <c r="D157" t="s">
+        <v>362</v>
+      </c>
+      <c r="E157" s="5">
+        <v>33</v>
       </c>
       <c r="F157">
         <v>9999</v>
@@ -5446,13 +5797,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="C158" t="s">
-        <v>117</v>
-      </c>
-      <c r="E158">
-        <v>3</v>
+        <v>228</v>
+      </c>
+      <c r="D158" t="s">
+        <v>151</v>
+      </c>
+      <c r="E158" s="5">
+        <v>19</v>
       </c>
       <c r="F158">
         <v>9999</v>
@@ -5469,19 +5823,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="C159" t="s">
-        <v>380</v>
-      </c>
-      <c r="E159">
-        <v>9999</v>
+        <v>81</v>
+      </c>
+      <c r="E159" s="5">
+        <v>11</v>
       </c>
       <c r="F159">
         <v>9999</v>
       </c>
       <c r="G159">
-        <v>12</v>
+        <v>9999</v>
       </c>
       <c r="H159">
         <v>9999</v>
@@ -5492,65 +5846,65 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="C160" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D160" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="E160">
-        <v>29</v>
+        <v>9999</v>
       </c>
       <c r="F160">
         <v>9999</v>
       </c>
-      <c r="G160">
-        <v>9999</v>
+      <c r="G160" s="3">
+        <v>19</v>
       </c>
       <c r="H160">
         <v>9999</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="C161" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="D161" t="s">
-        <v>283</v>
-      </c>
-      <c r="E161">
+        <v>84</v>
+      </c>
+      <c r="E161" s="5">
+        <v>1</v>
+      </c>
+      <c r="F161" s="5">
         <v>13</v>
       </c>
-      <c r="F161">
-        <v>9999</v>
-      </c>
       <c r="G161">
-        <v>13</v>
+        <v>9999</v>
       </c>
       <c r="H161">
         <v>9999</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>284</v>
+        <v>440</v>
       </c>
       <c r="C162" t="s">
-        <v>285</v>
-      </c>
-      <c r="E162">
-        <v>22</v>
+        <v>441</v>
+      </c>
+      <c r="E162" s="5">
+        <v>31</v>
       </c>
       <c r="F162">
         <v>9999</v>
@@ -5562,21 +5916,21 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="C163" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="D163" t="s">
-        <v>72</v>
-      </c>
-      <c r="E163">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="E163" s="5">
+        <v>29</v>
       </c>
       <c r="F163">
         <v>9999</v>
@@ -5588,44 +5942,47 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="C164" t="s">
-        <v>80</v>
+        <v>378</v>
+      </c>
+      <c r="D164" t="s">
+        <v>379</v>
       </c>
       <c r="E164">
-        <v>22</v>
+        <v>9999</v>
       </c>
       <c r="F164">
         <v>9999</v>
       </c>
-      <c r="G164">
-        <v>4</v>
+      <c r="G164" s="3">
+        <v>29</v>
       </c>
       <c r="H164">
         <v>9999</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="C165" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D165" t="s">
-        <v>85</v>
-      </c>
-      <c r="E165">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="E165" s="5">
+        <v>15</v>
       </c>
       <c r="F165">
         <v>9999</v>
@@ -5637,41 +5994,41 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="E166">
-        <v>27</v>
+        <v>9999</v>
       </c>
       <c r="F166">
         <v>9999</v>
       </c>
-      <c r="G166">
-        <v>9999</v>
+      <c r="G166" s="3">
+        <v>34</v>
       </c>
       <c r="H166">
         <v>9999</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="C167" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="D167" t="s">
-        <v>61</v>
-      </c>
-      <c r="E167">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="E167" s="5">
+        <v>10</v>
       </c>
       <c r="F167">
         <v>9999</v>
@@ -5683,21 +6040,18 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>292</v>
+        <v>437</v>
       </c>
       <c r="C168" t="s">
-        <v>293</v>
-      </c>
-      <c r="D168" t="s">
-        <v>85</v>
-      </c>
-      <c r="E168">
-        <v>21</v>
+        <v>438</v>
+      </c>
+      <c r="E168" s="5">
+        <v>31</v>
       </c>
       <c r="F168">
         <v>9999</v>
@@ -5709,21 +6063,21 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C169" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="D169" t="s">
-        <v>85</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
+        <v>242</v>
+      </c>
+      <c r="E169" s="5">
+        <v>18</v>
       </c>
       <c r="F169">
         <v>9999</v>
@@ -5735,41 +6089,44 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="C170" t="s">
-        <v>87</v>
-      </c>
-      <c r="E170">
-        <v>30</v>
+        <v>244</v>
+      </c>
+      <c r="D170" t="s">
+        <v>245</v>
+      </c>
+      <c r="E170" s="5">
+        <v>24</v>
       </c>
       <c r="F170">
         <v>9999</v>
       </c>
       <c r="G170">
-        <v>30</v>
+        <v>9999</v>
       </c>
       <c r="H170">
         <v>9999</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="C171" t="s">
-        <v>298</v>
-      </c>
-      <c r="E171">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="E171" s="5">
+        <v>16</v>
       </c>
       <c r="F171">
         <v>9999</v>
@@ -5781,21 +6138,18 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="C172" t="s">
-        <v>300</v>
-      </c>
-      <c r="D172" t="s">
-        <v>101</v>
-      </c>
-      <c r="E172">
-        <v>18</v>
+        <v>248</v>
+      </c>
+      <c r="E172" s="5">
+        <v>9</v>
       </c>
       <c r="F172">
         <v>9999</v>
@@ -5807,47 +6161,44 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="C173" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="D173" t="s">
-        <v>85</v>
-      </c>
-      <c r="E173">
-        <v>7</v>
-      </c>
-      <c r="F173">
-        <v>9999</v>
-      </c>
-      <c r="G173">
-        <v>9999</v>
+        <v>362</v>
+      </c>
+      <c r="E173" s="5">
+        <v>11</v>
+      </c>
+      <c r="F173" s="5">
+        <v>25</v>
+      </c>
+      <c r="G173" s="3">
+        <v>15</v>
       </c>
       <c r="H173">
         <v>9999</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="C174" t="s">
-        <v>239</v>
-      </c>
-      <c r="D174" t="s">
-        <v>240</v>
-      </c>
-      <c r="E174">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="E174" s="5">
+        <v>30</v>
       </c>
       <c r="F174">
         <v>9999</v>
@@ -5859,41 +6210,44 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="C175" t="s">
-        <v>232</v>
-      </c>
-      <c r="E175">
+        <v>348</v>
+      </c>
+      <c r="E175" s="5">
+        <v>4</v>
+      </c>
+      <c r="F175" s="5">
+        <v>23</v>
+      </c>
+      <c r="G175" s="3">
+        <v>11</v>
+      </c>
+      <c r="H175">
+        <v>9999</v>
+      </c>
+      <c r="J175" s="3">
         <v>22</v>
       </c>
-      <c r="F175">
-        <v>9999</v>
-      </c>
-      <c r="G175">
-        <v>9999</v>
-      </c>
-      <c r="H175">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>304</v>
+        <v>495</v>
       </c>
       <c r="C176" t="s">
-        <v>213</v>
-      </c>
-      <c r="E176">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="E176" s="5">
+        <v>5</v>
       </c>
       <c r="F176">
         <v>9999</v>
@@ -5910,22 +6264,22 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="C177" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D177" t="s">
-        <v>51</v>
-      </c>
-      <c r="E177">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="E177" s="5">
+        <v>1</v>
       </c>
       <c r="F177">
         <v>9999</v>
       </c>
-      <c r="G177">
-        <v>9999</v>
+      <c r="G177" s="3">
+        <v>1</v>
       </c>
       <c r="H177">
         <v>9999</v>
@@ -5936,7 +6290,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="C178" t="s">
         <v>50</v>
@@ -5944,14 +6298,14 @@
       <c r="D178" t="s">
         <v>51</v>
       </c>
-      <c r="E178">
-        <v>14</v>
+      <c r="E178" s="5">
+        <v>1</v>
       </c>
       <c r="F178">
         <v>9999</v>
       </c>
       <c r="G178">
-        <v>10</v>
+        <v>9999</v>
       </c>
       <c r="H178">
         <v>9999</v>
@@ -5962,10 +6316,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E179">
-        <v>27</v>
+        <v>421</v>
+      </c>
+      <c r="C179" t="s">
+        <v>422</v>
+      </c>
+      <c r="E179" s="5">
+        <v>12</v>
       </c>
       <c r="F179">
         <v>9999</v>
@@ -5982,19 +6339,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>24</v>
+        <v>416</v>
       </c>
       <c r="C180" t="s">
-        <v>308</v>
-      </c>
-      <c r="D180" t="s">
-        <v>85</v>
-      </c>
-      <c r="E180">
-        <v>16</v>
+        <v>417</v>
+      </c>
+      <c r="E180" s="5">
+        <v>11</v>
       </c>
       <c r="F180">
-        <v>23</v>
+        <v>9999</v>
       </c>
       <c r="G180">
         <v>9999</v>
@@ -6008,16 +6362,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="C181" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="D181" t="s">
-        <v>101</v>
-      </c>
-      <c r="E181">
-        <v>19</v>
+        <v>84</v>
+      </c>
+      <c r="E181" s="5">
+        <v>7</v>
       </c>
       <c r="F181">
         <v>9999</v>
@@ -6034,16 +6388,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="C182" t="s">
-        <v>80</v>
-      </c>
-      <c r="D182" t="s">
-        <v>365</v>
-      </c>
-      <c r="E182">
-        <v>2</v>
+        <v>255</v>
+      </c>
+      <c r="E182" s="5">
+        <v>20</v>
       </c>
       <c r="F182">
         <v>9999</v>
@@ -6060,22 +6411,22 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="C183" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="D183" t="s">
-        <v>62</v>
-      </c>
-      <c r="E183">
-        <v>15</v>
-      </c>
-      <c r="F183">
-        <v>9999</v>
-      </c>
-      <c r="G183">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="E183" s="5">
+        <v>8</v>
+      </c>
+      <c r="F183" s="5">
+        <v>10</v>
+      </c>
+      <c r="G183" s="3">
+        <v>13</v>
       </c>
       <c r="H183">
         <v>9999</v>
@@ -6086,13 +6437,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>312</v>
+        <v>439</v>
       </c>
       <c r="C184" t="s">
-        <v>313</v>
-      </c>
-      <c r="E184">
-        <v>28</v>
+        <v>392</v>
+      </c>
+      <c r="E184" s="5">
+        <v>31</v>
       </c>
       <c r="F184">
         <v>9999</v>
@@ -6109,25 +6460,25 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="C185" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="D185" t="s">
-        <v>51</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="E185" s="5">
+        <v>23</v>
       </c>
       <c r="F185">
         <v>9999</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="H185">
-        <v>11</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6135,19 +6486,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>388</v>
+        <v>259</v>
       </c>
       <c r="C186" t="s">
-        <v>389</v>
-      </c>
-      <c r="E186">
-        <v>9999</v>
+        <v>260</v>
+      </c>
+      <c r="E186" s="5">
+        <v>3</v>
       </c>
       <c r="F186">
         <v>9999</v>
       </c>
-      <c r="G186">
-        <v>25</v>
+      <c r="G186" s="3">
+        <v>3</v>
       </c>
       <c r="H186">
         <v>9999</v>
@@ -6158,19 +6509,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="C187" t="s">
-        <v>48</v>
-      </c>
-      <c r="E187">
-        <v>6</v>
+        <v>262</v>
+      </c>
+      <c r="E187" s="5">
+        <v>30</v>
       </c>
       <c r="F187">
         <v>9999</v>
       </c>
       <c r="G187">
-        <v>9</v>
+        <v>9999</v>
       </c>
       <c r="H187">
         <v>9999</v>
@@ -6181,13 +6532,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>316</v>
+        <v>429</v>
       </c>
       <c r="C188" t="s">
-        <v>45</v>
-      </c>
-      <c r="E188">
-        <v>25</v>
+        <v>430</v>
+      </c>
+      <c r="E188" s="5">
+        <v>24</v>
       </c>
       <c r="F188">
         <v>9999</v>
@@ -6204,22 +6555,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="C189" t="s">
-        <v>318</v>
-      </c>
-      <c r="D189" t="s">
-        <v>101</v>
-      </c>
-      <c r="E189">
-        <v>21</v>
+        <v>102</v>
+      </c>
+      <c r="E189" s="5">
+        <v>16</v>
       </c>
       <c r="F189">
         <v>9999</v>
       </c>
       <c r="G189">
-        <v>29</v>
+        <v>9999</v>
       </c>
       <c r="H189">
         <v>9999</v>
@@ -6230,13 +6578,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="C190" t="s">
-        <v>50</v>
-      </c>
-      <c r="E190">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="E190" s="5">
+        <v>16</v>
       </c>
       <c r="F190">
         <v>9999</v>
@@ -6253,19 +6601,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="C191" t="s">
-        <v>107</v>
+        <v>354</v>
       </c>
       <c r="E191">
-        <v>12</v>
+        <v>9999</v>
       </c>
       <c r="F191">
         <v>9999</v>
       </c>
-      <c r="G191">
-        <v>9999</v>
+      <c r="G191" s="3">
+        <v>6</v>
       </c>
       <c r="H191">
         <v>9999</v>
@@ -6276,16 +6624,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E192">
-        <v>27</v>
+        <v>265</v>
+      </c>
+      <c r="C192" t="s">
+        <v>266</v>
+      </c>
+      <c r="E192" s="5">
+        <v>30</v>
       </c>
       <c r="F192">
         <v>9999</v>
       </c>
-      <c r="G192">
-        <v>9999</v>
+      <c r="G192" s="3">
+        <v>30</v>
       </c>
       <c r="H192">
         <v>9999</v>
@@ -6296,16 +6647,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="C193" t="s">
-        <v>145</v>
-      </c>
-      <c r="D193" t="s">
-        <v>51</v>
-      </c>
-      <c r="E193">
-        <v>21</v>
+        <v>268</v>
+      </c>
+      <c r="E193" s="5">
+        <v>4</v>
       </c>
       <c r="F193">
         <v>9999</v>
@@ -6322,22 +6670,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="C194" t="s">
-        <v>323</v>
-      </c>
-      <c r="D194" t="s">
-        <v>61</v>
-      </c>
-      <c r="E194">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="E194" s="5">
+        <v>30</v>
       </c>
       <c r="F194">
-        <v>29</v>
+        <v>9999</v>
       </c>
       <c r="G194">
-        <v>21</v>
+        <v>9999</v>
       </c>
       <c r="H194">
         <v>9999</v>
@@ -6348,16 +6693,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="C195" t="s">
-        <v>325</v>
-      </c>
-      <c r="D195" t="s">
-        <v>61</v>
-      </c>
-      <c r="E195">
-        <v>21</v>
+        <v>113</v>
+      </c>
+      <c r="E195" s="5">
+        <v>3</v>
       </c>
       <c r="F195">
         <v>9999</v>
@@ -6374,10 +6716,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C196" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E196">
         <v>9999</v>
@@ -6385,8 +6727,8 @@
       <c r="F196">
         <v>9999</v>
       </c>
-      <c r="G196">
-        <v>6</v>
+      <c r="G196" s="3">
+        <v>12</v>
       </c>
       <c r="H196">
         <v>9999</v>
@@ -6397,13 +6739,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C197" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="D197" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="E197">
         <v>9999</v>
@@ -6411,11 +6753,11 @@
       <c r="F197">
         <v>9999</v>
       </c>
-      <c r="G197">
-        <v>10</v>
+      <c r="G197" s="3">
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>15</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6423,19 +6765,22 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="C198" t="s">
-        <v>327</v>
-      </c>
-      <c r="E198">
-        <v>6</v>
+        <v>272</v>
+      </c>
+      <c r="D198" t="s">
+        <v>273</v>
+      </c>
+      <c r="E198" s="5">
+        <v>13</v>
       </c>
       <c r="F198">
         <v>9999</v>
       </c>
-      <c r="G198">
-        <v>6</v>
+      <c r="G198" s="3">
+        <v>13</v>
       </c>
       <c r="H198">
         <v>9999</v>
@@ -6445,23 +6790,26 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>328</v>
+      <c r="B199" t="s">
+        <v>473</v>
       </c>
       <c r="C199" t="s">
-        <v>329</v>
-      </c>
-      <c r="E199">
-        <v>22</v>
+        <v>404</v>
+      </c>
+      <c r="D199" t="s">
+        <v>376</v>
+      </c>
+      <c r="E199" s="5">
+        <v>36</v>
       </c>
       <c r="F199">
         <v>9999</v>
       </c>
       <c r="G199">
-        <v>5</v>
+        <v>9999</v>
       </c>
       <c r="H199">
-        <v>22</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -6469,13 +6817,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="C200" t="s">
-        <v>98</v>
-      </c>
-      <c r="E200">
-        <v>23</v>
+        <v>275</v>
+      </c>
+      <c r="E200" s="5">
+        <v>22</v>
       </c>
       <c r="F200">
         <v>9999</v>
@@ -6492,19 +6840,22 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="C201" t="s">
-        <v>332</v>
-      </c>
-      <c r="E201">
-        <v>12</v>
+        <v>277</v>
+      </c>
+      <c r="D201" t="s">
+        <v>72</v>
+      </c>
+      <c r="E201" s="5">
+        <v>18</v>
       </c>
       <c r="F201">
         <v>9999</v>
       </c>
       <c r="G201">
-        <v>12</v>
+        <v>9999</v>
       </c>
       <c r="H201">
         <v>9999</v>
@@ -6515,22 +6866,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="C202" t="s">
-        <v>334</v>
-      </c>
-      <c r="D202" t="s">
-        <v>101</v>
-      </c>
-      <c r="E202">
-        <v>18</v>
+        <v>79</v>
+      </c>
+      <c r="E202" s="5">
+        <v>22</v>
       </c>
       <c r="F202">
         <v>9999</v>
       </c>
-      <c r="G202">
-        <v>18</v>
+      <c r="G202" s="3">
+        <v>4</v>
       </c>
       <c r="H202">
         <v>9999</v>
@@ -6541,13 +6889,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="C203" t="s">
-        <v>98</v>
-      </c>
-      <c r="E203">
-        <v>25</v>
+        <v>236</v>
+      </c>
+      <c r="D203" t="s">
+        <v>61</v>
+      </c>
+      <c r="E203" s="5">
+        <v>29</v>
       </c>
       <c r="F203">
         <v>9999</v>
@@ -6564,19 +6915,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="C204" t="s">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="D204" t="s">
-        <v>51</v>
-      </c>
-      <c r="E204">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="E204" s="5">
+        <v>10</v>
       </c>
       <c r="F204">
-        <v>15</v>
+        <v>9999</v>
       </c>
       <c r="G204">
         <v>9999</v>
@@ -6590,13 +6941,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C205" t="s">
-        <v>117</v>
-      </c>
-      <c r="E205">
-        <v>17</v>
+        <v>280</v>
+      </c>
+      <c r="E205" s="5">
+        <v>27</v>
       </c>
       <c r="F205">
         <v>9999</v>
@@ -6613,16 +6961,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="C206" t="s">
-        <v>339</v>
+        <v>236</v>
       </c>
       <c r="D206" t="s">
-        <v>85</v>
-      </c>
-      <c r="E206">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="E206" s="5">
+        <v>21</v>
       </c>
       <c r="F206">
         <v>9999</v>
@@ -6639,16 +6987,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="C207" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="D207" t="s">
-        <v>51</v>
-      </c>
-      <c r="E207">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="E207" s="5">
+        <v>21</v>
       </c>
       <c r="F207">
         <v>9999</v>
@@ -6665,10 +7013,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E208">
-        <v>27</v>
+        <v>284</v>
+      </c>
+      <c r="C208" t="s">
+        <v>285</v>
+      </c>
+      <c r="D208" t="s">
+        <v>84</v>
+      </c>
+      <c r="E208" s="5">
+        <v>1</v>
       </c>
       <c r="F208">
         <v>9999</v>
@@ -6685,22 +7039,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="C209" t="s">
-        <v>386</v>
-      </c>
-      <c r="D209" t="s">
-        <v>387</v>
-      </c>
-      <c r="E209">
-        <v>9999</v>
+        <v>86</v>
+      </c>
+      <c r="E209" s="5">
+        <v>30</v>
       </c>
       <c r="F209">
         <v>9999</v>
       </c>
-      <c r="G209">
-        <v>23</v>
+      <c r="G209" s="3">
+        <v>30</v>
       </c>
       <c r="H209">
         <v>9999</v>
@@ -6711,16 +7062,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="C210" t="s">
-        <v>361</v>
-      </c>
-      <c r="D210" t="s">
-        <v>61</v>
-      </c>
-      <c r="E210">
-        <v>29</v>
+        <v>288</v>
+      </c>
+      <c r="E210" s="5">
+        <v>6</v>
       </c>
       <c r="F210">
         <v>9999</v>
@@ -6737,19 +7085,22 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="C211" t="s">
-        <v>343</v>
-      </c>
-      <c r="E211">
-        <v>4</v>
+        <v>290</v>
+      </c>
+      <c r="D211" t="s">
+        <v>100</v>
+      </c>
+      <c r="E211" s="5">
+        <v>18</v>
       </c>
       <c r="F211">
         <v>9999</v>
       </c>
       <c r="G211">
-        <v>21</v>
+        <v>9999</v>
       </c>
       <c r="H211">
         <v>9999</v>
@@ -6760,15 +7111,15 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="C212" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D212" t="s">
-        <v>128</v>
-      </c>
-      <c r="E212">
+        <v>84</v>
+      </c>
+      <c r="E212" s="5">
         <v>7</v>
       </c>
       <c r="F212">
@@ -6786,22 +7137,22 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="C213" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="D213" t="s">
-        <v>34</v>
-      </c>
-      <c r="E213">
-        <v>26</v>
+        <v>232</v>
+      </c>
+      <c r="E213" s="5">
+        <v>19</v>
       </c>
       <c r="F213">
         <v>9999</v>
       </c>
       <c r="G213">
-        <v>26</v>
+        <v>9999</v>
       </c>
       <c r="H213">
         <v>9999</v>
@@ -6812,19 +7163,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="C214" t="s">
-        <v>349</v>
-      </c>
-      <c r="D214" t="s">
-        <v>34</v>
-      </c>
-      <c r="E214">
-        <v>7</v>
-      </c>
-      <c r="F214">
-        <v>9999</v>
+        <v>434</v>
+      </c>
+      <c r="E214" s="5">
+        <v>31</v>
+      </c>
+      <c r="F214" s="5">
+        <v>33</v>
       </c>
       <c r="G214">
         <v>9999</v>
@@ -6837,14 +7185,17 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>350</v>
+      <c r="B215" t="s">
+        <v>487</v>
       </c>
       <c r="C215" t="s">
-        <v>214</v>
-      </c>
-      <c r="E215">
-        <v>22</v>
+        <v>488</v>
+      </c>
+      <c r="D215" t="s">
+        <v>489</v>
+      </c>
+      <c r="E215" s="5">
+        <v>38</v>
       </c>
       <c r="F215">
         <v>9999</v>
@@ -6861,16 +7212,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="C216" t="s">
-        <v>352</v>
-      </c>
-      <c r="D216" t="s">
-        <v>353</v>
-      </c>
-      <c r="E216">
-        <v>29</v>
+        <v>224</v>
+      </c>
+      <c r="E216" s="5">
+        <v>22</v>
       </c>
       <c r="F216">
         <v>9999</v>
@@ -6887,16 +7235,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="C217" t="s">
-        <v>354</v>
-      </c>
-      <c r="E217">
-        <v>4</v>
+        <v>205</v>
+      </c>
+      <c r="E217" s="5">
+        <v>2</v>
       </c>
       <c r="F217">
-        <v>5</v>
+        <v>9999</v>
       </c>
       <c r="G217">
         <v>9999</v>
@@ -6910,16 +7258,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="C218" t="s">
-        <v>329</v>
+        <v>50</v>
       </c>
       <c r="D218" t="s">
-        <v>85</v>
-      </c>
-      <c r="E218">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="E218" s="5">
+        <v>13</v>
       </c>
       <c r="F218">
         <v>9999</v>
@@ -6935,23 +7283,23 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>356</v>
+      <c r="B219" t="s">
+        <v>479</v>
       </c>
       <c r="C219" t="s">
-        <v>357</v>
+        <v>480</v>
       </c>
       <c r="D219" t="s">
-        <v>34</v>
-      </c>
-      <c r="E219">
-        <v>26</v>
+        <v>362</v>
+      </c>
+      <c r="E219" s="5">
+        <v>37</v>
       </c>
       <c r="F219">
         <v>9999</v>
       </c>
       <c r="G219">
-        <v>26</v>
+        <v>9999</v>
       </c>
       <c r="H219">
         <v>9999</v>
@@ -6962,19 +7310,22 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="C220" t="s">
-        <v>359</v>
-      </c>
-      <c r="E220">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="D220" t="s">
+        <v>51</v>
+      </c>
+      <c r="E220" s="5">
+        <v>14</v>
       </c>
       <c r="F220">
         <v>9999</v>
       </c>
-      <c r="G220">
-        <v>9999</v>
+      <c r="G220" s="3">
+        <v>10</v>
       </c>
       <c r="H220">
         <v>9999</v>
@@ -6985,13 +7336,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C221" t="s">
-        <v>359</v>
-      </c>
-      <c r="E221">
-        <v>24</v>
+        <v>297</v>
+      </c>
+      <c r="E221" s="5">
+        <v>27</v>
       </c>
       <c r="F221">
         <v>9999</v>
@@ -7008,123 +7356,1267 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C222" t="s">
+        <v>298</v>
+      </c>
+      <c r="D222" t="s">
+        <v>84</v>
+      </c>
+      <c r="E222" s="5">
+        <v>16</v>
+      </c>
+      <c r="F222" s="5">
+        <v>23</v>
+      </c>
+      <c r="G222">
+        <v>9999</v>
+      </c>
+      <c r="H222">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C223" t="s">
+        <v>126</v>
+      </c>
+      <c r="D223" t="s">
+        <v>100</v>
+      </c>
+      <c r="E223" s="5">
+        <v>19</v>
+      </c>
+      <c r="F223">
+        <v>9999</v>
+      </c>
+      <c r="G223">
+        <v>9999</v>
+      </c>
+      <c r="H223">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C224" t="s">
+        <v>79</v>
+      </c>
+      <c r="D224" t="s">
+        <v>349</v>
+      </c>
+      <c r="E224" s="5">
+        <v>2</v>
+      </c>
+      <c r="F224">
+        <v>9999</v>
+      </c>
+      <c r="G224">
+        <v>9999</v>
+      </c>
+      <c r="H224">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C225" t="s">
+        <v>136</v>
+      </c>
+      <c r="D225" t="s">
+        <v>62</v>
+      </c>
+      <c r="E225" s="5">
+        <v>15</v>
+      </c>
+      <c r="F225" s="5">
+        <v>37</v>
+      </c>
+      <c r="G225" s="3">
+        <v>14</v>
+      </c>
+      <c r="H225">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C226" t="s">
+        <v>412</v>
+      </c>
+      <c r="D226" t="s">
+        <v>413</v>
+      </c>
+      <c r="E226" s="5">
+        <v>7</v>
+      </c>
+      <c r="F226">
+        <v>9999</v>
+      </c>
+      <c r="G226">
+        <v>9999</v>
+      </c>
+      <c r="H226">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C227" t="s">
+        <v>302</v>
+      </c>
+      <c r="E227" s="5">
+        <v>28</v>
+      </c>
+      <c r="F227">
+        <v>9999</v>
+      </c>
+      <c r="G227">
+        <v>9999</v>
+      </c>
+      <c r="H227">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C228" t="s">
+        <v>390</v>
+      </c>
+      <c r="E228" s="5">
+        <v>33</v>
+      </c>
+      <c r="F228">
+        <v>9999</v>
+      </c>
+      <c r="G228" s="3">
+        <v>31</v>
+      </c>
+      <c r="H228">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C229" t="s">
+        <v>50</v>
+      </c>
+      <c r="D229" t="s">
+        <v>51</v>
+      </c>
+      <c r="E229" s="5">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>9999</v>
+      </c>
+      <c r="G229" s="3">
+        <v>1</v>
+      </c>
+      <c r="H229" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>477</v>
+      </c>
+      <c r="C230" t="s">
+        <v>478</v>
+      </c>
+      <c r="D230" t="s">
+        <v>362</v>
+      </c>
+      <c r="E230" s="5">
+        <v>37</v>
+      </c>
+      <c r="F230">
+        <v>9999</v>
+      </c>
+      <c r="G230">
+        <v>9999</v>
+      </c>
+      <c r="H230">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C231" t="s">
+        <v>373</v>
+      </c>
+      <c r="E231">
+        <v>9999</v>
+      </c>
+      <c r="F231">
+        <v>9999</v>
+      </c>
+      <c r="G231" s="3">
+        <v>25</v>
+      </c>
+      <c r="H231">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C232" t="s">
+        <v>48</v>
+      </c>
+      <c r="D232" t="s">
+        <v>490</v>
+      </c>
+      <c r="E232" s="5">
+        <v>6</v>
+      </c>
+      <c r="F232">
+        <v>9999</v>
+      </c>
+      <c r="G232" s="3">
+        <v>9</v>
+      </c>
+      <c r="H232">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C233" t="s">
+        <v>45</v>
+      </c>
+      <c r="E233" s="5">
+        <v>25</v>
+      </c>
+      <c r="F233">
+        <v>9999</v>
+      </c>
+      <c r="G233">
+        <v>9999</v>
+      </c>
+      <c r="H233">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C234" t="s">
+        <v>307</v>
+      </c>
+      <c r="D234" t="s">
+        <v>100</v>
+      </c>
+      <c r="E234" s="5">
+        <v>21</v>
+      </c>
+      <c r="F234">
+        <v>9999</v>
+      </c>
+      <c r="G234" s="3">
+        <v>29</v>
+      </c>
+      <c r="H234">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C235" t="s">
+        <v>50</v>
+      </c>
+      <c r="E235" s="5">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>9999</v>
+      </c>
+      <c r="G235">
+        <v>9999</v>
+      </c>
+      <c r="H235">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C236" t="s">
+        <v>104</v>
+      </c>
+      <c r="E236" s="5">
+        <v>12</v>
+      </c>
+      <c r="F236">
+        <v>9999</v>
+      </c>
+      <c r="G236">
+        <v>9999</v>
+      </c>
+      <c r="H236">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E237" s="5">
         <v>27</v>
       </c>
-      <c r="C222" t="s">
+      <c r="F237">
+        <v>9999</v>
+      </c>
+      <c r="G237">
+        <v>9999</v>
+      </c>
+      <c r="H237">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C238" t="s">
+        <v>140</v>
+      </c>
+      <c r="D238" t="s">
+        <v>51</v>
+      </c>
+      <c r="E238" s="5">
+        <v>21</v>
+      </c>
+      <c r="F238">
+        <v>9999</v>
+      </c>
+      <c r="G238">
+        <v>9999</v>
+      </c>
+      <c r="H238">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239" t="s">
+        <v>311</v>
+      </c>
+      <c r="D239" t="s">
+        <v>61</v>
+      </c>
+      <c r="E239" s="5">
+        <v>5</v>
+      </c>
+      <c r="F239" s="5">
+        <v>29</v>
+      </c>
+      <c r="G239" s="3">
+        <v>21</v>
+      </c>
+      <c r="H239">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C240" t="s">
+        <v>204</v>
+      </c>
+      <c r="D240" t="s">
+        <v>84</v>
+      </c>
+      <c r="E240" s="5">
+        <v>14</v>
+      </c>
+      <c r="F240">
+        <v>9999</v>
+      </c>
+      <c r="G240">
+        <v>9999</v>
+      </c>
+      <c r="H240">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C241" t="s">
+        <v>313</v>
+      </c>
+      <c r="D241" t="s">
+        <v>61</v>
+      </c>
+      <c r="E241" s="5">
+        <v>21</v>
+      </c>
+      <c r="F241">
+        <v>9999</v>
+      </c>
+      <c r="G241">
+        <v>9999</v>
+      </c>
+      <c r="H241">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>481</v>
+      </c>
+      <c r="C242" t="s">
+        <v>482</v>
+      </c>
+      <c r="D242" t="s">
+        <v>349</v>
+      </c>
+      <c r="E242" s="5">
+        <v>38</v>
+      </c>
+      <c r="F242">
+        <v>9999</v>
+      </c>
+      <c r="G242">
+        <v>9999</v>
+      </c>
+      <c r="H242">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C243" t="s">
+        <v>354</v>
+      </c>
+      <c r="E243">
+        <v>9999</v>
+      </c>
+      <c r="F243">
+        <v>9999</v>
+      </c>
+      <c r="G243" s="3">
+        <v>6</v>
+      </c>
+      <c r="H243">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C244" t="s">
+        <v>361</v>
+      </c>
+      <c r="D244" t="s">
+        <v>362</v>
+      </c>
+      <c r="E244">
+        <v>9999</v>
+      </c>
+      <c r="F244">
+        <v>9999</v>
+      </c>
+      <c r="G244" s="3">
+        <v>10</v>
+      </c>
+      <c r="H244" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C245" t="s">
+        <v>315</v>
+      </c>
+      <c r="E245" s="5">
+        <v>6</v>
+      </c>
+      <c r="F245">
+        <v>9999</v>
+      </c>
+      <c r="G245" s="3">
+        <v>6</v>
+      </c>
+      <c r="H245">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C246" t="s">
+        <v>317</v>
+      </c>
+      <c r="E246" s="5">
+        <v>22</v>
+      </c>
+      <c r="F246">
+        <v>9999</v>
+      </c>
+      <c r="G246" s="3">
+        <v>5</v>
+      </c>
+      <c r="H246" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C247" t="s">
+        <v>97</v>
+      </c>
+      <c r="E247" s="5">
+        <v>23</v>
+      </c>
+      <c r="F247">
+        <v>9999</v>
+      </c>
+      <c r="G247">
+        <v>9999</v>
+      </c>
+      <c r="H247">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C248" t="s">
+        <v>320</v>
+      </c>
+      <c r="E248" s="5">
+        <v>12</v>
+      </c>
+      <c r="F248">
+        <v>9999</v>
+      </c>
+      <c r="G248" s="3">
+        <v>12</v>
+      </c>
+      <c r="H248">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C249" t="s">
+        <v>322</v>
+      </c>
+      <c r="D249" t="s">
+        <v>100</v>
+      </c>
+      <c r="E249" s="5">
+        <v>18</v>
+      </c>
+      <c r="F249">
+        <v>9999</v>
+      </c>
+      <c r="G249" s="3">
+        <v>18</v>
+      </c>
+      <c r="H249">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C250" t="s">
+        <v>97</v>
+      </c>
+      <c r="E250" s="5">
+        <v>25</v>
+      </c>
+      <c r="F250">
+        <v>9999</v>
+      </c>
+      <c r="G250">
+        <v>9999</v>
+      </c>
+      <c r="H250">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C251" t="s">
+        <v>140</v>
+      </c>
+      <c r="D251" t="s">
+        <v>51</v>
+      </c>
+      <c r="E251" s="5">
+        <v>13</v>
+      </c>
+      <c r="F251" s="5">
+        <v>15</v>
+      </c>
+      <c r="G251">
+        <v>9999</v>
+      </c>
+      <c r="H251">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C252" t="s">
+        <v>410</v>
+      </c>
+      <c r="D252" t="s">
+        <v>409</v>
+      </c>
+      <c r="E252" s="5">
+        <v>35</v>
+      </c>
+      <c r="F252" s="5">
+        <v>38</v>
+      </c>
+      <c r="G252" s="3">
+        <v>38</v>
+      </c>
+      <c r="H252">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C253" t="s">
+        <v>113</v>
+      </c>
+      <c r="E253" s="5">
+        <v>17</v>
+      </c>
+      <c r="F253">
+        <v>9999</v>
+      </c>
+      <c r="G253">
+        <v>9999</v>
+      </c>
+      <c r="H253">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C254" t="s">
+        <v>327</v>
+      </c>
+      <c r="D254" t="s">
+        <v>84</v>
+      </c>
+      <c r="E254" s="5">
+        <v>7</v>
+      </c>
+      <c r="F254">
+        <v>9999</v>
+      </c>
+      <c r="G254">
+        <v>9999</v>
+      </c>
+      <c r="H254">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C255" t="s">
+        <v>50</v>
+      </c>
+      <c r="D255" t="s">
+        <v>51</v>
+      </c>
+      <c r="E255" s="5">
+        <v>13</v>
+      </c>
+      <c r="F255">
+        <v>9999</v>
+      </c>
+      <c r="G255">
+        <v>9999</v>
+      </c>
+      <c r="H255">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E256" s="5">
+        <v>27</v>
+      </c>
+      <c r="F256">
+        <v>9999</v>
+      </c>
+      <c r="G256">
+        <v>9999</v>
+      </c>
+      <c r="H256">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C257" t="s">
+        <v>370</v>
+      </c>
+      <c r="D257" t="s">
+        <v>371</v>
+      </c>
+      <c r="E257">
+        <v>9999</v>
+      </c>
+      <c r="F257">
+        <v>9999</v>
+      </c>
+      <c r="G257" s="3">
+        <v>23</v>
+      </c>
+      <c r="H257">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C258" t="s">
+        <v>346</v>
+      </c>
+      <c r="D258" t="s">
+        <v>61</v>
+      </c>
+      <c r="E258" s="5">
+        <v>29</v>
+      </c>
+      <c r="F258">
+        <v>9999</v>
+      </c>
+      <c r="G258">
+        <v>9999</v>
+      </c>
+      <c r="H258">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C259" t="s">
+        <v>330</v>
+      </c>
+      <c r="D259" t="s">
+        <v>379</v>
+      </c>
+      <c r="E259" s="5">
+        <v>4</v>
+      </c>
+      <c r="F259">
+        <v>9999</v>
+      </c>
+      <c r="G259" s="3">
+        <v>21</v>
+      </c>
+      <c r="H259">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C260" t="s">
+        <v>335</v>
+      </c>
+      <c r="D260" t="s">
+        <v>34</v>
+      </c>
+      <c r="E260" s="5">
+        <v>7</v>
+      </c>
+      <c r="F260">
+        <v>9999</v>
+      </c>
+      <c r="G260">
+        <v>9999</v>
+      </c>
+      <c r="H260">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C261" t="s">
+        <v>208</v>
+      </c>
+      <c r="D261" t="s">
+        <v>124</v>
+      </c>
+      <c r="E261" s="5">
+        <v>7</v>
+      </c>
+      <c r="F261">
+        <v>9999</v>
+      </c>
+      <c r="G261">
+        <v>9999</v>
+      </c>
+      <c r="H261">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C262" t="s">
+        <v>334</v>
+      </c>
+      <c r="D262" t="s">
+        <v>34</v>
+      </c>
+      <c r="E262" s="5">
+        <v>26</v>
+      </c>
+      <c r="F262">
+        <v>9999</v>
+      </c>
+      <c r="G262" s="3">
+        <v>26</v>
+      </c>
+      <c r="H262">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>450</v>
+      </c>
+      <c r="C263" t="s">
+        <v>445</v>
+      </c>
+      <c r="D263" t="s">
+        <v>376</v>
+      </c>
+      <c r="E263" s="5">
+        <v>32</v>
+      </c>
+      <c r="F263">
+        <v>9999</v>
+      </c>
+      <c r="G263">
+        <v>9999</v>
+      </c>
+      <c r="H263">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>499</v>
+      </c>
+      <c r="C264" t="s">
+        <v>500</v>
+      </c>
+      <c r="E264" s="5">
+        <v>23</v>
+      </c>
+      <c r="F264">
+        <v>9999</v>
+      </c>
+      <c r="G264">
+        <v>9999</v>
+      </c>
+      <c r="H264">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C265" t="s">
+        <v>206</v>
+      </c>
+      <c r="E265" s="5">
+        <v>22</v>
+      </c>
+      <c r="F265">
+        <v>9999</v>
+      </c>
+      <c r="G265">
+        <v>9999</v>
+      </c>
+      <c r="H265">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C266" t="s">
+        <v>338</v>
+      </c>
+      <c r="D266" t="s">
+        <v>339</v>
+      </c>
+      <c r="E266" s="5">
+        <v>29</v>
+      </c>
+      <c r="F266">
+        <v>9999</v>
+      </c>
+      <c r="G266">
+        <v>9999</v>
+      </c>
+      <c r="H266">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C267" t="s">
+        <v>340</v>
+      </c>
+      <c r="E267" s="5">
+        <v>4</v>
+      </c>
+      <c r="F267" s="5">
+        <v>5</v>
+      </c>
+      <c r="G267">
+        <v>9999</v>
+      </c>
+      <c r="H267">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C268" t="s">
+        <v>317</v>
+      </c>
+      <c r="D268" t="s">
+        <v>84</v>
+      </c>
+      <c r="E268" s="5">
+        <v>9</v>
+      </c>
+      <c r="F268">
+        <v>9999</v>
+      </c>
+      <c r="G268">
+        <v>9999</v>
+      </c>
+      <c r="H268">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C269" t="s">
+        <v>343</v>
+      </c>
+      <c r="D269" t="s">
+        <v>34</v>
+      </c>
+      <c r="E269" s="5">
+        <v>26</v>
+      </c>
+      <c r="F269">
+        <v>9999</v>
+      </c>
+      <c r="G269" s="3">
+        <v>26</v>
+      </c>
+      <c r="H269">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>455</v>
+      </c>
+      <c r="C270" t="s">
+        <v>456</v>
+      </c>
+      <c r="D270" t="s">
+        <v>457</v>
+      </c>
+      <c r="E270" s="5">
+        <v>34</v>
+      </c>
+      <c r="F270">
+        <v>9999</v>
+      </c>
+      <c r="G270">
+        <v>9999</v>
+      </c>
+      <c r="H270">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C271" t="s">
+        <v>344</v>
+      </c>
+      <c r="E271" s="5">
+        <v>11</v>
+      </c>
+      <c r="F271" s="5">
+        <v>24</v>
+      </c>
+      <c r="G271">
+        <v>9999</v>
+      </c>
+      <c r="H271">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" t="s">
         <v>48</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D272" t="s">
         <v>47</v>
       </c>
-      <c r="E222">
+      <c r="E272" s="5">
         <v>9</v>
       </c>
-      <c r="F222">
+      <c r="F272" s="5">
         <v>18</v>
       </c>
-      <c r="G222">
+      <c r="G272" s="3">
         <v>24</v>
       </c>
-      <c r="H222">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="1"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="1"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="1"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="1"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="1"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="1"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="1"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="1"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="1"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="1"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="1"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="1"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="1"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="1"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="1"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="1"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="1"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="1"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="1"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="1"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="1"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="1"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="1"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="1"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="1"/>
+      <c r="H272">
+        <v>9999</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I257">
-    <sortCondition ref="A2:A257"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J274">
+    <sortCondition ref="B2:B274"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
